--- a/SAG2_Database_update.xlsx
+++ b/SAG2_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1039,6 +1039,43 @@
         <v>390</v>
       </c>
       <c r="I16" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45732.61619851852</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0x01,0x86</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>400</v>
+      </c>
+      <c r="G17" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H17" t="n">
+        <v>390</v>
+      </c>
+      <c r="I17" t="n">
         <v>14</v>
       </c>
     </row>
@@ -1821,7 +1858,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2428,6 +2465,43 @@
         <v>390</v>
       </c>
       <c r="I16" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45732.63623451389</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0x01,0x86</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>400</v>
+      </c>
+      <c r="G17" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H17" t="n">
+        <v>390</v>
+      </c>
+      <c r="I17" t="n">
         <v>20</v>
       </c>
     </row>
@@ -2442,7 +2516,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3052,6 +3126,43 @@
         <v>25</v>
       </c>
     </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45732.78172160879</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0x01,0x86</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>400</v>
+      </c>
+      <c r="G17" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H17" t="n">
+        <v>390</v>
+      </c>
+      <c r="I17" t="n">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAG2_Database_update.xlsx
+++ b/SAG2_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1076,6 +1076,43 @@
         <v>390</v>
       </c>
       <c r="I17" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45733.11858277778</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0x01,0x82</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>400</v>
+      </c>
+      <c r="G18" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H18" t="n">
+        <v>386</v>
+      </c>
+      <c r="I18" t="n">
         <v>14</v>
       </c>
     </row>
@@ -1090,7 +1127,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1844,6 +1881,45 @@
         <v>390</v>
       </c>
       <c r="I19" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45733.09563657407</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0x01,0x86</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>400</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>390</v>
+      </c>
+      <c r="I20" t="n">
         <v>25</v>
       </c>
     </row>
@@ -1858,7 +1934,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2502,6 +2578,43 @@
         <v>390</v>
       </c>
       <c r="I17" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45733.13871136574</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0x01,0x82</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>400</v>
+      </c>
+      <c r="G18" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H18" t="n">
+        <v>386</v>
+      </c>
+      <c r="I18" t="n">
         <v>20</v>
       </c>
     </row>
@@ -2516,7 +2629,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3163,6 +3276,43 @@
         <v>25</v>
       </c>
     </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45733.2857841088</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0x01,0x86</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>400</v>
+      </c>
+      <c r="G18" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H18" t="n">
+        <v>390</v>
+      </c>
+      <c r="I18" t="n">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAG2_Database_update.xlsx
+++ b/SAG2_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1113,6 +1113,43 @@
         <v>386</v>
       </c>
       <c r="I18" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45733.62027259259</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0x01,0x82</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>400</v>
+      </c>
+      <c r="G19" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H19" t="n">
+        <v>386</v>
+      </c>
+      <c r="I19" t="n">
         <v>14</v>
       </c>
     </row>
@@ -1127,7 +1164,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1920,6 +1957,45 @@
         <v>390</v>
       </c>
       <c r="I20" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45733.59885416667</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0x01,0x86</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>400</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>390</v>
+      </c>
+      <c r="I21" t="n">
         <v>25</v>
       </c>
     </row>
@@ -1934,7 +2010,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2615,6 +2691,43 @@
         <v>386</v>
       </c>
       <c r="I18" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45733.64138497685</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0x01,0x82</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>400</v>
+      </c>
+      <c r="G19" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H19" t="n">
+        <v>386</v>
+      </c>
+      <c r="I19" t="n">
         <v>20</v>
       </c>
     </row>
@@ -2629,7 +2742,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3313,6 +3426,43 @@
         <v>25</v>
       </c>
     </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45733.78845771991</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0x01,0x86</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>400</v>
+      </c>
+      <c r="G19" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H19" t="n">
+        <v>390</v>
+      </c>
+      <c r="I19" t="n">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAG2_Database_update.xlsx
+++ b/SAG2_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1150,6 +1150,43 @@
         <v>386</v>
       </c>
       <c r="I19" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45734.12257583333</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0x01,0x82</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>400</v>
+      </c>
+      <c r="G20" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H20" t="n">
+        <v>386</v>
+      </c>
+      <c r="I20" t="n">
         <v>14</v>
       </c>
     </row>
@@ -1164,7 +1201,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1996,6 +2033,45 @@
         <v>390</v>
       </c>
       <c r="I21" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45734.10013888889</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0x01,0x86</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>400</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>390</v>
+      </c>
+      <c r="I22" t="n">
         <v>25</v>
       </c>
     </row>
@@ -2010,7 +2086,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2728,6 +2804,43 @@
         <v>386</v>
       </c>
       <c r="I19" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45734.14382710648</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0x01,0x82</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>400</v>
+      </c>
+      <c r="G20" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H20" t="n">
+        <v>386</v>
+      </c>
+      <c r="I20" t="n">
         <v>20</v>
       </c>
     </row>
@@ -2742,7 +2855,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3463,6 +3576,43 @@
         <v>25</v>
       </c>
     </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45734.28952253472</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0x01,0x86</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>400</v>
+      </c>
+      <c r="G20" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H20" t="n">
+        <v>390</v>
+      </c>
+      <c r="I20" t="n">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAG2_Database_update.xlsx
+++ b/SAG2_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1187,6 +1187,43 @@
         <v>386</v>
       </c>
       <c r="I20" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45734.62337444445</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0x01,0x7e</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>400</v>
+      </c>
+      <c r="G21" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H21" t="n">
+        <v>382</v>
+      </c>
+      <c r="I21" t="n">
         <v>14</v>
       </c>
     </row>
@@ -1201,7 +1238,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2072,6 +2109,45 @@
         <v>390</v>
       </c>
       <c r="I22" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45734.60172453704</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0x01,0x86</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>400</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>390</v>
+      </c>
+      <c r="I23" t="n">
         <v>25</v>
       </c>
     </row>
@@ -2086,7 +2162,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2841,6 +2917,43 @@
         <v>386</v>
       </c>
       <c r="I20" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45734.64615349537</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0x01,0x7e</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>400</v>
+      </c>
+      <c r="G21" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H21" t="n">
+        <v>382</v>
+      </c>
+      <c r="I21" t="n">
         <v>20</v>
       </c>
     </row>
@@ -2855,7 +2968,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3613,6 +3726,43 @@
         <v>25</v>
       </c>
     </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45734.79339984954</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0x01,0x86</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>400</v>
+      </c>
+      <c r="G21" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H21" t="n">
+        <v>390</v>
+      </c>
+      <c r="I21" t="n">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAG2_Database_update.xlsx
+++ b/SAG2_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1224,6 +1224,43 @@
         <v>382</v>
       </c>
       <c r="I21" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45735.12566611111</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0x01,0x7e</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>400</v>
+      </c>
+      <c r="G22" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H22" t="n">
+        <v>382</v>
+      </c>
+      <c r="I22" t="n">
         <v>14</v>
       </c>
     </row>
@@ -1238,7 +1275,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2148,6 +2185,45 @@
         <v>390</v>
       </c>
       <c r="I23" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45735.10394675926</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0x01,0x82</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>400</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>386</v>
+      </c>
+      <c r="I24" t="n">
         <v>25</v>
       </c>
     </row>
@@ -2162,7 +2238,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2954,6 +3030,43 @@
         <v>382</v>
       </c>
       <c r="I21" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45735.14782016203</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0x01,0x7e</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>400</v>
+      </c>
+      <c r="G22" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H22" t="n">
+        <v>382</v>
+      </c>
+      <c r="I22" t="n">
         <v>20</v>
       </c>
     </row>
@@ -2968,7 +3081,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3763,6 +3876,43 @@
         <v>25</v>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45735.29618920139</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0x01,0x86</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>400</v>
+      </c>
+      <c r="G22" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H22" t="n">
+        <v>390</v>
+      </c>
+      <c r="I22" t="n">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAG2_Database_update.xlsx
+++ b/SAG2_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1261,6 +1261,43 @@
         <v>382</v>
       </c>
       <c r="I22" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45735.62891842593</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0x01,0x7e</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>400</v>
+      </c>
+      <c r="G23" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H23" t="n">
+        <v>382</v>
+      </c>
+      <c r="I23" t="n">
         <v>14</v>
       </c>
     </row>
@@ -1275,7 +1312,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2224,6 +2261,45 @@
         <v>386</v>
       </c>
       <c r="I24" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45735.60466435185</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0x01,0x82</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>400</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>386</v>
+      </c>
+      <c r="I25" t="n">
         <v>25</v>
       </c>
     </row>
@@ -2238,7 +2314,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3067,6 +3143,43 @@
         <v>382</v>
       </c>
       <c r="I22" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45735.65168590278</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0x01,0x7e</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>400</v>
+      </c>
+      <c r="G23" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H23" t="n">
+        <v>382</v>
+      </c>
+      <c r="I23" t="n">
         <v>20</v>
       </c>
     </row>
@@ -3081,7 +3194,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3913,6 +4026,43 @@
         <v>25</v>
       </c>
     </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45735.79907114583</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0x01,0x86</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>400</v>
+      </c>
+      <c r="G23" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H23" t="n">
+        <v>390</v>
+      </c>
+      <c r="I23" t="n">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAG2_Database_update.xlsx
+++ b/SAG2_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1298,6 +1298,43 @@
         <v>382</v>
       </c>
       <c r="I23" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45736.13258740741</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0x01,0x7e</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>400</v>
+      </c>
+      <c r="G24" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H24" t="n">
+        <v>382</v>
+      </c>
+      <c r="I24" t="n">
         <v>14</v>
       </c>
     </row>
@@ -1312,7 +1349,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2300,6 +2337,45 @@
         <v>386</v>
       </c>
       <c r="I25" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45736.10865740741</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0x01,0x82</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>400</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>386</v>
+      </c>
+      <c r="I26" t="n">
         <v>25</v>
       </c>
     </row>
@@ -2314,7 +2390,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3180,6 +3256,43 @@
         <v>382</v>
       </c>
       <c r="I23" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45736.15396599537</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0x01,0x7e</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>400</v>
+      </c>
+      <c r="G24" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H24" t="n">
+        <v>382</v>
+      </c>
+      <c r="I24" t="n">
         <v>20</v>
       </c>
     </row>
@@ -3194,7 +3307,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4063,6 +4176,43 @@
         <v>25</v>
       </c>
     </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45736.3010040162</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0x01,0x82</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>400</v>
+      </c>
+      <c r="G24" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H24" t="n">
+        <v>386</v>
+      </c>
+      <c r="I24" t="n">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAG2_Database_update.xlsx
+++ b/SAG2_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1335,6 +1335,43 @@
         <v>382</v>
       </c>
       <c r="I24" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45736.63332814815</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0x01,0x7a</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>400</v>
+      </c>
+      <c r="G25" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H25" t="n">
+        <v>378</v>
+      </c>
+      <c r="I25" t="n">
         <v>14</v>
       </c>
     </row>
@@ -1349,7 +1386,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2376,6 +2413,45 @@
         <v>386</v>
       </c>
       <c r="I26" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45736.61004629629</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0x01,0x82</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>400</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>386</v>
+      </c>
+      <c r="I27" t="n">
         <v>25</v>
       </c>
     </row>
@@ -2390,7 +2466,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3293,6 +3369,43 @@
         <v>382</v>
       </c>
       <c r="I24" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45736.65663960648</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0x01,0x7a</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>400</v>
+      </c>
+      <c r="G25" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H25" t="n">
+        <v>378</v>
+      </c>
+      <c r="I25" t="n">
         <v>20</v>
       </c>
     </row>
@@ -3307,7 +3420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4213,6 +4326,43 @@
         <v>25</v>
       </c>
     </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45736.8038628125</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0x01,0x82</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>400</v>
+      </c>
+      <c r="G25" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H25" t="n">
+        <v>386</v>
+      </c>
+      <c r="I25" t="n">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAG2_Database_update.xlsx
+++ b/SAG2_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1372,6 +1372,43 @@
         <v>378</v>
       </c>
       <c r="I25" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45737.13607120371</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0x01,0x7a</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>400</v>
+      </c>
+      <c r="G26" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H26" t="n">
+        <v>378</v>
+      </c>
+      <c r="I26" t="n">
         <v>14</v>
       </c>
     </row>
@@ -1386,7 +1423,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2452,6 +2489,45 @@
         <v>386</v>
       </c>
       <c r="I27" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45737.11314814815</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0x01,0x82</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>400</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>386</v>
+      </c>
+      <c r="I28" t="n">
         <v>25</v>
       </c>
     </row>
@@ -2466,7 +2542,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3406,6 +3482,43 @@
         <v>378</v>
       </c>
       <c r="I25" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45737.16007710648</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0x01,0x7a</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>400</v>
+      </c>
+      <c r="G26" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H26" t="n">
+        <v>378</v>
+      </c>
+      <c r="I26" t="n">
         <v>20</v>
       </c>
     </row>
@@ -3420,7 +3533,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4363,6 +4476,43 @@
         <v>25</v>
       </c>
     </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45737.30617762732</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0x01,0x82</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>400</v>
+      </c>
+      <c r="G26" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H26" t="n">
+        <v>386</v>
+      </c>
+      <c r="I26" t="n">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAG2_Database_update.xlsx
+++ b/SAG2_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1409,6 +1409,43 @@
         <v>378</v>
       </c>
       <c r="I26" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45737.63989064815</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0x01,0x7a</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>400</v>
+      </c>
+      <c r="G27" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H27" t="n">
+        <v>378</v>
+      </c>
+      <c r="I27" t="n">
         <v>14</v>
       </c>
     </row>
@@ -1423,7 +1460,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2528,6 +2565,45 @@
         <v>386</v>
       </c>
       <c r="I28" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45737.61546296296</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0x01,0x7e</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>400</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>382</v>
+      </c>
+      <c r="I29" t="n">
         <v>25</v>
       </c>
     </row>
@@ -2542,7 +2618,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3519,6 +3595,43 @@
         <v>378</v>
       </c>
       <c r="I26" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45737.66196368056</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0x01,0x7a</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>400</v>
+      </c>
+      <c r="G27" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H27" t="n">
+        <v>378</v>
+      </c>
+      <c r="I27" t="n">
         <v>20</v>
       </c>
     </row>
@@ -3533,7 +3646,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4513,6 +4626,43 @@
         <v>25</v>
       </c>
     </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45737.81002021991</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0x01,0x82</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>400</v>
+      </c>
+      <c r="G27" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H27" t="n">
+        <v>386</v>
+      </c>
+      <c r="I27" t="n">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAG2_Database_update.xlsx
+++ b/SAG2_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1446,6 +1446,43 @@
         <v>378</v>
       </c>
       <c r="I27" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45738.14380268518</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0x01,0x7a</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>400</v>
+      </c>
+      <c r="G28" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H28" t="n">
+        <v>378</v>
+      </c>
+      <c r="I28" t="n">
         <v>14</v>
       </c>
     </row>
@@ -1460,7 +1497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2604,6 +2641,45 @@
         <v>382</v>
       </c>
       <c r="I29" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45738.11898148148</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0x01,0x7e</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>400</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>382</v>
+      </c>
+      <c r="I30" t="n">
         <v>25</v>
       </c>
     </row>
@@ -2618,7 +2694,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3632,6 +3708,43 @@
         <v>378</v>
       </c>
       <c r="I27" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45738.16418590278</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0x01,0x7a</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>400</v>
+      </c>
+      <c r="G28" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H28" t="n">
+        <v>378</v>
+      </c>
+      <c r="I28" t="n">
         <v>20</v>
       </c>
     </row>
@@ -3646,7 +3759,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4663,6 +4776,43 @@
         <v>25</v>
       </c>
     </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45738.31253179398</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0x01,0x82</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>400</v>
+      </c>
+      <c r="G28" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H28" t="n">
+        <v>386</v>
+      </c>
+      <c r="I28" t="n">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAG2_Database_update.xlsx
+++ b/SAG2_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1483,6 +1483,43 @@
         <v>378</v>
       </c>
       <c r="I28" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45738.64788833333</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0x01,0x7a</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>400</v>
+      </c>
+      <c r="G29" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H29" t="n">
+        <v>378</v>
+      </c>
+      <c r="I29" t="n">
         <v>14</v>
       </c>
     </row>
@@ -1497,7 +1534,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2680,6 +2717,45 @@
         <v>382</v>
       </c>
       <c r="I30" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45738.61987268519</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0x01,0x7e</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>400</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>382</v>
+      </c>
+      <c r="I31" t="n">
         <v>25</v>
       </c>
     </row>
@@ -2694,7 +2770,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3745,6 +3821,43 @@
         <v>378</v>
       </c>
       <c r="I28" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45738.66588729167</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0x01,0x7a</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>400</v>
+      </c>
+      <c r="G29" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H29" t="n">
+        <v>378</v>
+      </c>
+      <c r="I29" t="n">
         <v>20</v>
       </c>
     </row>
@@ -3759,7 +3872,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4813,6 +4926,43 @@
         <v>25</v>
       </c>
     </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45738.81330725695</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0x01,0x7e</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>400</v>
+      </c>
+      <c r="G29" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H29" t="n">
+        <v>382</v>
+      </c>
+      <c r="I29" t="n">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAG2_Database_update.xlsx
+++ b/SAG2_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1520,6 +1520,43 @@
         <v>378</v>
       </c>
       <c r="I29" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45739.14953185185</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0x01,0x76</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>400</v>
+      </c>
+      <c r="G30" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H30" t="n">
+        <v>374</v>
+      </c>
+      <c r="I30" t="n">
         <v>14</v>
       </c>
     </row>
@@ -1534,7 +1571,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2756,6 +2793,45 @@
         <v>382</v>
       </c>
       <c r="I31" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45739.12150462963</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0x01,0x7e</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>400</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>382</v>
+      </c>
+      <c r="I32" t="n">
         <v>25</v>
       </c>
     </row>
@@ -2770,7 +2846,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3858,6 +3934,43 @@
         <v>378</v>
       </c>
       <c r="I29" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45739.16679006944</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0x01,0x76</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>400</v>
+      </c>
+      <c r="G30" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H30" t="n">
+        <v>374</v>
+      </c>
+      <c r="I30" t="n">
         <v>20</v>
       </c>
     </row>
@@ -3872,7 +3985,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4963,6 +5076,43 @@
         <v>25</v>
       </c>
     </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45739.3156915162</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0x01,0x7e</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>400</v>
+      </c>
+      <c r="G30" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H30" t="n">
+        <v>382</v>
+      </c>
+      <c r="I30" t="n">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAG2_Database_update.xlsx
+++ b/SAG2_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1557,6 +1557,43 @@
         <v>374</v>
       </c>
       <c r="I30" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45739.650805</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0x01,0x76</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>400</v>
+      </c>
+      <c r="G31" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H31" t="n">
+        <v>374</v>
+      </c>
+      <c r="I31" t="n">
         <v>14</v>
       </c>
     </row>
@@ -1571,7 +1608,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2832,6 +2869,45 @@
         <v>382</v>
       </c>
       <c r="I32" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45739.62341435185</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0x01,0x7a</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>400</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>378</v>
+      </c>
+      <c r="I33" t="n">
         <v>25</v>
       </c>
     </row>
@@ -2846,7 +2922,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3971,6 +4047,43 @@
         <v>374</v>
       </c>
       <c r="I30" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45739.67029701389</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0x01,0x76</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>400</v>
+      </c>
+      <c r="G31" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H31" t="n">
+        <v>374</v>
+      </c>
+      <c r="I31" t="n">
         <v>20</v>
       </c>
     </row>
@@ -3985,7 +4098,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5113,6 +5226,43 @@
         <v>25</v>
       </c>
     </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45739.81708040509</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0x01,0x7e</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>400</v>
+      </c>
+      <c r="G31" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H31" t="n">
+        <v>382</v>
+      </c>
+      <c r="I31" t="n">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAG2_Database_update.xlsx
+++ b/SAG2_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1594,6 +1594,43 @@
         <v>374</v>
       </c>
       <c r="I31" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45740.1542425</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0x01,0x76</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>400</v>
+      </c>
+      <c r="G32" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H32" t="n">
+        <v>374</v>
+      </c>
+      <c r="I32" t="n">
         <v>14</v>
       </c>
     </row>
@@ -1608,7 +1645,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I33"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2908,6 +2945,45 @@
         <v>378</v>
       </c>
       <c r="I33" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45740.12556712963</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0x01,0x7a</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>400</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>378</v>
+      </c>
+      <c r="I34" t="n">
         <v>25</v>
       </c>
     </row>
@@ -2922,7 +2998,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4084,6 +4160,43 @@
         <v>374</v>
       </c>
       <c r="I31" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45740.17130395833</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0x01,0x76</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>400</v>
+      </c>
+      <c r="G32" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H32" t="n">
+        <v>374</v>
+      </c>
+      <c r="I32" t="n">
         <v>20</v>
       </c>
     </row>
@@ -4098,7 +4211,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5263,6 +5376,43 @@
         <v>25</v>
       </c>
     </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45740.31863133102</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0x01,0x7e</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>400</v>
+      </c>
+      <c r="G32" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H32" t="n">
+        <v>382</v>
+      </c>
+      <c r="I32" t="n">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAG2_Database_update.xlsx
+++ b/SAG2_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1631,6 +1631,43 @@
         <v>374</v>
       </c>
       <c r="I32" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45740.65792305556</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0x01,0x76</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>400</v>
+      </c>
+      <c r="G33" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H33" t="n">
+        <v>374</v>
+      </c>
+      <c r="I33" t="n">
         <v>14</v>
       </c>
     </row>
@@ -1645,7 +1682,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2984,6 +3021,45 @@
         <v>378</v>
       </c>
       <c r="I34" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45740.62659722222</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0x01,0x7a</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>400</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>378</v>
+      </c>
+      <c r="I35" t="n">
         <v>25</v>
       </c>
     </row>
@@ -2998,7 +3074,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4197,6 +4273,43 @@
         <v>374</v>
       </c>
       <c r="I32" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45740.67379238426</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0x01,0x76</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>400</v>
+      </c>
+      <c r="G33" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H33" t="n">
+        <v>374</v>
+      </c>
+      <c r="I33" t="n">
         <v>20</v>
       </c>
     </row>
@@ -4211,7 +4324,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5413,6 +5526,43 @@
         <v>25</v>
       </c>
     </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45740.82269383102</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0x01,0x7a</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>400</v>
+      </c>
+      <c r="G33" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H33" t="n">
+        <v>378</v>
+      </c>
+      <c r="I33" t="n">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAG2_Database_update.xlsx
+++ b/SAG2_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I33"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1668,6 +1668,43 @@
         <v>374</v>
       </c>
       <c r="I33" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45741.16164990741</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0x01,0x72</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>400</v>
+      </c>
+      <c r="G34" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H34" t="n">
+        <v>370</v>
+      </c>
+      <c r="I34" t="n">
         <v>14</v>
       </c>
     </row>
@@ -1682,7 +1719,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I35"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3060,6 +3097,45 @@
         <v>378</v>
       </c>
       <c r="I35" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45741.12800925926</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0x01,0x7a</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>400</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>378</v>
+      </c>
+      <c r="I36" t="n">
         <v>25</v>
       </c>
     </row>
@@ -3074,7 +3150,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I33"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4310,6 +4386,43 @@
         <v>374</v>
       </c>
       <c r="I33" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45741.17474145834</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0x01,0x72</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>400</v>
+      </c>
+      <c r="G34" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H34" t="n">
+        <v>370</v>
+      </c>
+      <c r="I34" t="n">
         <v>20</v>
       </c>
     </row>
@@ -4324,7 +4437,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I33"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5563,6 +5676,43 @@
         <v>25</v>
       </c>
     </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45741.32546003472</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0x01,0x7a</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>400</v>
+      </c>
+      <c r="G34" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H34" t="n">
+        <v>378</v>
+      </c>
+      <c r="I34" t="n">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAG2_Database_update.xlsx
+++ b/SAG2_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1705,6 +1705,43 @@
         <v>370</v>
       </c>
       <c r="I34" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45741.66264527778</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0x01,0x72</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>400</v>
+      </c>
+      <c r="G35" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H35" t="n">
+        <v>370</v>
+      </c>
+      <c r="I35" t="n">
         <v>14</v>
       </c>
     </row>
@@ -1719,7 +1756,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I36"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3136,6 +3173,45 @@
         <v>378</v>
       </c>
       <c r="I36" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45741.62961805556</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0x01,0x76</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>400</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>374</v>
+      </c>
+      <c r="I37" t="n">
         <v>25</v>
       </c>
     </row>
@@ -3150,7 +3226,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4423,6 +4499,43 @@
         <v>370</v>
       </c>
       <c r="I34" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45741.67594516204</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0x01,0x72</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>400</v>
+      </c>
+      <c r="G35" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H35" t="n">
+        <v>370</v>
+      </c>
+      <c r="I35" t="n">
         <v>20</v>
       </c>
     </row>
@@ -4437,7 +4550,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5713,6 +5826,43 @@
         <v>25</v>
       </c>
     </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45741.82650170139</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0x01,0x7a</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>400</v>
+      </c>
+      <c r="G35" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H35" t="n">
+        <v>378</v>
+      </c>
+      <c r="I35" t="n">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAG2_Database_update.xlsx
+++ b/SAG2_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I35"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1742,6 +1742,43 @@
         <v>370</v>
       </c>
       <c r="I35" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45742.1642887963</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0x01,0x72</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>400</v>
+      </c>
+      <c r="G36" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H36" t="n">
+        <v>370</v>
+      </c>
+      <c r="I36" t="n">
         <v>14</v>
       </c>
     </row>
@@ -1756,7 +1793,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3212,6 +3249,45 @@
         <v>374</v>
       </c>
       <c r="I37" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45742.13329861111</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0x01,0x76</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>400</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>374</v>
+      </c>
+      <c r="I38" t="n">
         <v>25</v>
       </c>
     </row>
@@ -3226,7 +3302,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I35"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4536,6 +4612,43 @@
         <v>370</v>
       </c>
       <c r="I35" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45742.18000766203</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0x01,0x72</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>400</v>
+      </c>
+      <c r="G36" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H36" t="n">
+        <v>370</v>
+      </c>
+      <c r="I36" t="n">
         <v>20</v>
       </c>
     </row>
@@ -4550,7 +4663,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I35"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5863,6 +5976,43 @@
         <v>25</v>
       </c>
     </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45742.3298003125</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0x01,0x7a</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>400</v>
+      </c>
+      <c r="G36" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H36" t="n">
+        <v>378</v>
+      </c>
+      <c r="I36" t="n">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAG2_Database_update.xlsx
+++ b/SAG2_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I36"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1779,6 +1779,43 @@
         <v>370</v>
       </c>
       <c r="I36" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45742.66588601852</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0x01,0x72</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>400</v>
+      </c>
+      <c r="G37" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H37" t="n">
+        <v>370</v>
+      </c>
+      <c r="I37" t="n">
         <v>14</v>
       </c>
     </row>
@@ -1793,7 +1830,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I38"/>
+  <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3288,6 +3325,45 @@
         <v>374</v>
       </c>
       <c r="I38" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45742.63417824074</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0x01,0x76</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>400</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>374</v>
+      </c>
+      <c r="I39" t="n">
         <v>25</v>
       </c>
     </row>
@@ -3302,7 +3378,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I36"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4649,6 +4725,43 @@
         <v>370</v>
       </c>
       <c r="I36" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45742.68198682871</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0x01,0x72</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>400</v>
+      </c>
+      <c r="G37" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H37" t="n">
+        <v>370</v>
+      </c>
+      <c r="I37" t="n">
         <v>20</v>
       </c>
     </row>
@@ -4663,7 +4776,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I36"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6013,6 +6126,43 @@
         <v>25</v>
       </c>
     </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45742.83058734953</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0x01,0x76</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>400</v>
+      </c>
+      <c r="G37" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H37" t="n">
+        <v>374</v>
+      </c>
+      <c r="I37" t="n">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAG2_Database_update.xlsx
+++ b/SAG2_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1816,6 +1816,43 @@
         <v>370</v>
       </c>
       <c r="I37" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45743.16792305555</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0x01,0x6e</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>400</v>
+      </c>
+      <c r="G38" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H38" t="n">
+        <v>366</v>
+      </c>
+      <c r="I38" t="n">
         <v>14</v>
       </c>
     </row>
@@ -1830,7 +1867,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I39"/>
+  <dimension ref="A1:I40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3364,6 +3401,45 @@
         <v>374</v>
       </c>
       <c r="I39" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45743.1370949074</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0x01,0x76</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>400</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>374</v>
+      </c>
+      <c r="I40" t="n">
         <v>25</v>
       </c>
     </row>
@@ -3378,7 +3454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4762,6 +4838,43 @@
         <v>370</v>
       </c>
       <c r="I37" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45743.18440581019</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0x01,0x6e</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>400</v>
+      </c>
+      <c r="G38" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H38" t="n">
+        <v>366</v>
+      </c>
+      <c r="I38" t="n">
         <v>20</v>
       </c>
     </row>
@@ -4776,7 +4889,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6163,6 +6276,43 @@
         <v>25</v>
       </c>
     </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45743.33174475694</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0x01,0x76</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>400</v>
+      </c>
+      <c r="G38" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H38" t="n">
+        <v>374</v>
+      </c>
+      <c r="I38" t="n">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAG2_Database_update.xlsx
+++ b/SAG2_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I38"/>
+  <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1853,6 +1853,43 @@
         <v>366</v>
       </c>
       <c r="I38" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45743.66920777778</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0x01,0x6e</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>400</v>
+      </c>
+      <c r="G39" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H39" t="n">
+        <v>366</v>
+      </c>
+      <c r="I39" t="n">
         <v>14</v>
       </c>
     </row>
@@ -1867,7 +1904,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I40"/>
+  <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3440,6 +3477,45 @@
         <v>374</v>
       </c>
       <c r="I40" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45743.63802083334</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0x01,0x72</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>400</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>370</v>
+      </c>
+      <c r="I41" t="n">
         <v>25</v>
       </c>
     </row>
@@ -3454,7 +3530,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I38"/>
+  <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4875,6 +4951,43 @@
         <v>366</v>
       </c>
       <c r="I38" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45743.68740349537</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0x01,0x6e</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>400</v>
+      </c>
+      <c r="G39" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H39" t="n">
+        <v>366</v>
+      </c>
+      <c r="I39" t="n">
         <v>20</v>
       </c>
     </row>
@@ -4889,7 +5002,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I38"/>
+  <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6313,6 +6426,43 @@
         <v>25</v>
       </c>
     </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45743.83452253472</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0x01,0x76</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>400</v>
+      </c>
+      <c r="G39" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H39" t="n">
+        <v>374</v>
+      </c>
+      <c r="I39" t="n">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAG2_Database_update.xlsx
+++ b/SAG2_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I39"/>
+  <dimension ref="A1:I40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1890,6 +1890,43 @@
         <v>366</v>
       </c>
       <c r="I39" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45744.1704925</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0x01,0x6e</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>400</v>
+      </c>
+      <c r="G40" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H40" t="n">
+        <v>366</v>
+      </c>
+      <c r="I40" t="n">
         <v>14</v>
       </c>
     </row>
@@ -1904,7 +1941,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I41"/>
+  <dimension ref="A1:I42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3516,6 +3553,45 @@
         <v>370</v>
       </c>
       <c r="I41" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45744.13932870371</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0x01,0x72</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>400</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>370</v>
+      </c>
+      <c r="I42" t="n">
         <v>25</v>
       </c>
     </row>
@@ -3530,7 +3606,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I39"/>
+  <dimension ref="A1:I40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4988,6 +5064,43 @@
         <v>366</v>
       </c>
       <c r="I39" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45744.18933636574</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0x01,0x6e</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>400</v>
+      </c>
+      <c r="G40" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H40" t="n">
+        <v>366</v>
+      </c>
+      <c r="I40" t="n">
         <v>20</v>
       </c>
     </row>
@@ -5002,7 +5115,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I39"/>
+  <dimension ref="A1:I40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6463,6 +6576,43 @@
         <v>25</v>
       </c>
     </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45744.33584197917</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0x01,0x76</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>400</v>
+      </c>
+      <c r="G40" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H40" t="n">
+        <v>374</v>
+      </c>
+      <c r="I40" t="n">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAG2_Database_update.xlsx
+++ b/SAG2_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I40"/>
+  <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1927,6 +1927,43 @@
         <v>366</v>
       </c>
       <c r="I40" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45744.67248324074</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0x01,0x6e</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>400</v>
+      </c>
+      <c r="G41" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H41" t="n">
+        <v>366</v>
+      </c>
+      <c r="I41" t="n">
         <v>14</v>
       </c>
     </row>
@@ -1941,7 +1978,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I42"/>
+  <dimension ref="A1:I43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3592,6 +3629,45 @@
         <v>370</v>
       </c>
       <c r="I42" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45744.64055555555</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0x01,0x72</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>400</v>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>370</v>
+      </c>
+      <c r="I43" t="n">
         <v>25</v>
       </c>
     </row>
@@ -3606,7 +3682,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I40"/>
+  <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5101,6 +5177,43 @@
         <v>366</v>
       </c>
       <c r="I40" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45744.69266969908</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0x01,0x6e</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>400</v>
+      </c>
+      <c r="G41" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H41" t="n">
+        <v>366</v>
+      </c>
+      <c r="I41" t="n">
         <v>20</v>
       </c>
     </row>
@@ -5115,7 +5228,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I40"/>
+  <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6613,6 +6726,43 @@
         <v>25</v>
       </c>
     </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45744.83702253472</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0x01,0x72</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>400</v>
+      </c>
+      <c r="G41" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H41" t="n">
+        <v>370</v>
+      </c>
+      <c r="I41" t="n">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAG2_Database_update.xlsx
+++ b/SAG2_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I41"/>
+  <dimension ref="A1:I42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1964,6 +1964,43 @@
         <v>366</v>
       </c>
       <c r="I41" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45745.17660361111</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0x01,0x6a</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>400</v>
+      </c>
+      <c r="G42" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H42" t="n">
+        <v>362</v>
+      </c>
+      <c r="I42" t="n">
         <v>14</v>
       </c>
     </row>
@@ -1978,7 +2015,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I43"/>
+  <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3668,6 +3705,45 @@
         <v>370</v>
       </c>
       <c r="I43" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45745.1428125</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0x01,0x72</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>400</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>370</v>
+      </c>
+      <c r="I44" t="n">
         <v>25</v>
       </c>
     </row>
@@ -3682,7 +3758,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I41"/>
+  <dimension ref="A1:I42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5214,6 +5290,43 @@
         <v>366</v>
       </c>
       <c r="I41" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45745.19591043981</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0x01,0x6a</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>400</v>
+      </c>
+      <c r="G42" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H42" t="n">
+        <v>362</v>
+      </c>
+      <c r="I42" t="n">
         <v>20</v>
       </c>
     </row>
@@ -5228,7 +5341,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I41"/>
+  <dimension ref="A1:I42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6763,6 +6876,43 @@
         <v>25</v>
       </c>
     </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45745.33860818287</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0x01,0x72</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>400</v>
+      </c>
+      <c r="G42" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H42" t="n">
+        <v>370</v>
+      </c>
+      <c r="I42" t="n">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAG2_Database_update.xlsx
+++ b/SAG2_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I42"/>
+  <dimension ref="A1:I43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2001,6 +2001,43 @@
         <v>362</v>
       </c>
       <c r="I42" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45745.67887212963</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0x01,0x6a</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>400</v>
+      </c>
+      <c r="G43" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H43" t="n">
+        <v>362</v>
+      </c>
+      <c r="I43" t="n">
         <v>14</v>
       </c>
     </row>
@@ -2015,7 +2052,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I44"/>
+  <dimension ref="A1:I45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3744,6 +3781,45 @@
         <v>370</v>
       </c>
       <c r="I44" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45745.64622685185</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0x01,0x72</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>400</v>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>370</v>
+      </c>
+      <c r="I45" t="n">
         <v>25</v>
       </c>
     </row>
@@ -3758,7 +3834,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I42"/>
+  <dimension ref="A1:I43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5327,6 +5403,43 @@
         <v>362</v>
       </c>
       <c r="I42" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45745.69933636574</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0x01,0x6a</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>400</v>
+      </c>
+      <c r="G43" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H43" t="n">
+        <v>362</v>
+      </c>
+      <c r="I43" t="n">
         <v>20</v>
       </c>
     </row>
@@ -5341,7 +5454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I42"/>
+  <dimension ref="A1:I43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6913,6 +7026,43 @@
         <v>25</v>
       </c>
     </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45745.8397540162</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0x01,0x72</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>400</v>
+      </c>
+      <c r="G43" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H43" t="n">
+        <v>370</v>
+      </c>
+      <c r="I43" t="n">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAG2_Database_update.xlsx
+++ b/SAG2_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I43"/>
+  <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2038,6 +2038,43 @@
         <v>362</v>
       </c>
       <c r="I43" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45746.1808512963</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0x01,0x6a</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>400</v>
+      </c>
+      <c r="G44" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H44" t="n">
+        <v>362</v>
+      </c>
+      <c r="I44" t="n">
         <v>14</v>
       </c>
     </row>
@@ -2052,7 +2089,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I45"/>
+  <dimension ref="A1:I46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3820,6 +3857,45 @@
         <v>370</v>
       </c>
       <c r="I45" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45746.14997685186</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0x01,0x6e</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>400</v>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>366</v>
+      </c>
+      <c r="I46" t="n">
         <v>25</v>
       </c>
     </row>
@@ -3834,7 +3910,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I43"/>
+  <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5440,6 +5516,43 @@
         <v>362</v>
       </c>
       <c r="I43" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45746.20224145833</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0x01,0x6a</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>400</v>
+      </c>
+      <c r="G44" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H44" t="n">
+        <v>362</v>
+      </c>
+      <c r="I44" t="n">
         <v>20</v>
       </c>
     </row>
@@ -5454,7 +5567,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I43"/>
+  <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7063,6 +7176,43 @@
         <v>25</v>
       </c>
     </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45746.34206883102</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0x01,0x72</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>400</v>
+      </c>
+      <c r="G44" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H44" t="n">
+        <v>370</v>
+      </c>
+      <c r="I44" t="n">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAG2_Database_update.xlsx
+++ b/SAG2_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I44"/>
+  <dimension ref="A1:I45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2075,6 +2075,43 @@
         <v>362</v>
       </c>
       <c r="I44" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45746.68190453704</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0x01,0x6a</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>400</v>
+      </c>
+      <c r="G45" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H45" t="n">
+        <v>362</v>
+      </c>
+      <c r="I45" t="n">
         <v>14</v>
       </c>
     </row>
@@ -2089,7 +2126,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I46"/>
+  <dimension ref="A1:I47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3896,6 +3933,45 @@
         <v>366</v>
       </c>
       <c r="I46" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45746.6508912037</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0x01,0x6e</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>400</v>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>366</v>
+      </c>
+      <c r="I47" t="n">
         <v>25</v>
       </c>
     </row>
@@ -3910,7 +3986,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I44"/>
+  <dimension ref="A1:I45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5553,6 +5629,43 @@
         <v>362</v>
       </c>
       <c r="I44" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45746.70389655093</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0x01,0x6a</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>400</v>
+      </c>
+      <c r="G45" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H45" t="n">
+        <v>362</v>
+      </c>
+      <c r="I45" t="n">
         <v>20</v>
       </c>
     </row>
@@ -5567,7 +5680,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I44"/>
+  <dimension ref="A1:I45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7213,6 +7326,43 @@
         <v>25</v>
       </c>
     </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45746.84336512732</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0x01,0x72</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>400</v>
+      </c>
+      <c r="G45" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H45" t="n">
+        <v>370</v>
+      </c>
+      <c r="I45" t="n">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAG2_Database_update.xlsx
+++ b/SAG2_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I45"/>
+  <dimension ref="A1:I46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2112,6 +2112,43 @@
         <v>362</v>
       </c>
       <c r="I45" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45747.18384898148</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0x01,0x6a</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>400</v>
+      </c>
+      <c r="G46" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H46" t="n">
+        <v>362</v>
+      </c>
+      <c r="I46" t="n">
         <v>14</v>
       </c>
     </row>
@@ -2126,7 +2163,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I47"/>
+  <dimension ref="A1:I48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3972,6 +4009,45 @@
         <v>366</v>
       </c>
       <c r="I47" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45747.1524074074</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0x01,0x6e</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>400</v>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>366</v>
+      </c>
+      <c r="I48" t="n">
         <v>25</v>
       </c>
     </row>
@@ -3986,7 +4062,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I45"/>
+  <dimension ref="A1:I46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5666,6 +5742,43 @@
         <v>362</v>
       </c>
       <c r="I45" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45747.206095625</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0x01,0x6a</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>400</v>
+      </c>
+      <c r="G46" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H46" t="n">
+        <v>362</v>
+      </c>
+      <c r="I46" t="n">
         <v>20</v>
       </c>
     </row>
@@ -5680,7 +5793,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I45"/>
+  <dimension ref="A1:I46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7363,6 +7476,43 @@
         <v>25</v>
       </c>
     </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45747.34497392361</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0x01,0x6e</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>400</v>
+      </c>
+      <c r="G46" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H46" t="n">
+        <v>366</v>
+      </c>
+      <c r="I46" t="n">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAG2_Database_update.xlsx
+++ b/SAG2_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I46"/>
+  <dimension ref="A1:I47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2149,6 +2149,43 @@
         <v>362</v>
       </c>
       <c r="I46" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45747.68463601852</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0x01,0x66</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>400</v>
+      </c>
+      <c r="G47" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H47" t="n">
+        <v>358</v>
+      </c>
+      <c r="I47" t="n">
         <v>14</v>
       </c>
     </row>
@@ -2163,7 +2200,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I48"/>
+  <dimension ref="A1:I49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4048,6 +4085,45 @@
         <v>366</v>
       </c>
       <c r="I48" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45747.65561342592</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0x01,0x6e</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>400</v>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>366</v>
+      </c>
+      <c r="I49" t="n">
         <v>25</v>
       </c>
     </row>
@@ -4062,7 +4138,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I46"/>
+  <dimension ref="A1:I47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5779,6 +5855,43 @@
         <v>362</v>
       </c>
       <c r="I46" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45747.70941738426</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0x01,0x66</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>400</v>
+      </c>
+      <c r="G47" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H47" t="n">
+        <v>358</v>
+      </c>
+      <c r="I47" t="n">
         <v>20</v>
       </c>
     </row>
@@ -5793,7 +5906,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I46"/>
+  <dimension ref="A1:I47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7513,6 +7626,43 @@
         <v>25</v>
       </c>
     </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45747.84657114583</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0x01,0x6e</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>400</v>
+      </c>
+      <c r="G47" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H47" t="n">
+        <v>366</v>
+      </c>
+      <c r="I47" t="n">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAG2_Database_update.xlsx
+++ b/SAG2_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I47"/>
+  <dimension ref="A1:I48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2186,6 +2186,43 @@
         <v>358</v>
       </c>
       <c r="I47" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45748.18585129629</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0x01,0x66</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>400</v>
+      </c>
+      <c r="G48" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H48" t="n">
+        <v>358</v>
+      </c>
+      <c r="I48" t="n">
         <v>14</v>
       </c>
     </row>
@@ -2200,7 +2237,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I49"/>
+  <dimension ref="A1:I50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4124,6 +4161,45 @@
         <v>366</v>
       </c>
       <c r="I49" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45748.15712962963</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0x01,0x6a</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>400</v>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>362</v>
+      </c>
+      <c r="I50" t="n">
         <v>25</v>
       </c>
     </row>
@@ -4138,7 +4214,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I47"/>
+  <dimension ref="A1:I48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5892,6 +5968,43 @@
         <v>358</v>
       </c>
       <c r="I47" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45748.21298219907</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0x01,0x66</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>400</v>
+      </c>
+      <c r="G48" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H48" t="n">
+        <v>358</v>
+      </c>
+      <c r="I48" t="n">
         <v>20</v>
       </c>
     </row>
@@ -5906,7 +6019,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I47"/>
+  <dimension ref="A1:I48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7663,6 +7776,43 @@
         <v>25</v>
       </c>
     </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45748.34986975694</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0x01,0x6e</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>400</v>
+      </c>
+      <c r="G48" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H48" t="n">
+        <v>366</v>
+      </c>
+      <c r="I48" t="n">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAG2_Database_update.xlsx
+++ b/SAG2_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I48"/>
+  <dimension ref="A1:I49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2223,6 +2223,43 @@
         <v>358</v>
       </c>
       <c r="I48" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45748.687055</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0x01,0x66</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>400</v>
+      </c>
+      <c r="G49" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H49" t="n">
+        <v>358</v>
+      </c>
+      <c r="I49" t="n">
         <v>14</v>
       </c>
     </row>
@@ -2237,7 +2274,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I50"/>
+  <dimension ref="A1:I51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4200,6 +4237,45 @@
         <v>362</v>
       </c>
       <c r="I50" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45748.65979166667</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0x01,0x6a</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F51" t="n">
+        <v>400</v>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>362</v>
+      </c>
+      <c r="I51" t="n">
         <v>25</v>
       </c>
     </row>
@@ -4214,7 +4290,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I48"/>
+  <dimension ref="A1:I49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6005,6 +6081,43 @@
         <v>358</v>
       </c>
       <c r="I48" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45748.71592201389</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0x01,0x66</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>400</v>
+      </c>
+      <c r="G49" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H49" t="n">
+        <v>358</v>
+      </c>
+      <c r="I49" t="n">
         <v>20</v>
       </c>
     </row>
@@ -6019,7 +6132,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I48"/>
+  <dimension ref="A1:I49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7813,6 +7926,43 @@
         <v>25</v>
       </c>
     </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45748.85342299769</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0x01,0x6e</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>400</v>
+      </c>
+      <c r="G49" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H49" t="n">
+        <v>366</v>
+      </c>
+      <c r="I49" t="n">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAG2_Database_update.xlsx
+++ b/SAG2_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I49"/>
+  <dimension ref="A1:I50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2260,6 +2260,43 @@
         <v>358</v>
       </c>
       <c r="I49" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45749.18968231481</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0x01,0x66</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>400</v>
+      </c>
+      <c r="G50" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H50" t="n">
+        <v>358</v>
+      </c>
+      <c r="I50" t="n">
         <v>14</v>
       </c>
     </row>
@@ -2274,7 +2311,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I51"/>
+  <dimension ref="A1:I52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4276,6 +4313,45 @@
         <v>362</v>
       </c>
       <c r="I51" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45749.1606712963</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0x01,0x6a</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
+        <v>400</v>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>362</v>
+      </c>
+      <c r="I52" t="n">
         <v>25</v>
       </c>
     </row>
@@ -4290,7 +4366,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I49"/>
+  <dimension ref="A1:I50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6118,6 +6194,43 @@
         <v>358</v>
       </c>
       <c r="I49" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45749.2183757176</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0x01,0x66</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>400</v>
+      </c>
+      <c r="G50" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H50" t="n">
+        <v>358</v>
+      </c>
+      <c r="I50" t="n">
         <v>20</v>
       </c>
     </row>
@@ -6132,7 +6245,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I49"/>
+  <dimension ref="A1:I50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7963,6 +8076,43 @@
         <v>25</v>
       </c>
     </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45749.3548929051</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0x01,0x6a</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>400</v>
+      </c>
+      <c r="G50" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H50" t="n">
+        <v>362</v>
+      </c>
+      <c r="I50" t="n">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAG2_Database_update.xlsx
+++ b/SAG2_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I50"/>
+  <dimension ref="A1:I51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2297,6 +2297,43 @@
         <v>358</v>
       </c>
       <c r="I50" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45749.69065453704</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0x01,0x62</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F51" t="n">
+        <v>400</v>
+      </c>
+      <c r="G51" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H51" t="n">
+        <v>354</v>
+      </c>
+      <c r="I51" t="n">
         <v>14</v>
       </c>
     </row>
@@ -2311,7 +2348,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I52"/>
+  <dimension ref="A1:I53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4352,6 +4389,45 @@
         <v>362</v>
       </c>
       <c r="I52" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45749.66216435185</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0x01,0x6a</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F53" t="n">
+        <v>400</v>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>362</v>
+      </c>
+      <c r="I53" t="n">
         <v>25</v>
       </c>
     </row>
@@ -4366,7 +4442,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I50"/>
+  <dimension ref="A1:I51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6231,6 +6307,43 @@
         <v>358</v>
       </c>
       <c r="I50" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45749.72177849537</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0x01,0x62</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F51" t="n">
+        <v>400</v>
+      </c>
+      <c r="G51" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H51" t="n">
+        <v>354</v>
+      </c>
+      <c r="I51" t="n">
         <v>20</v>
       </c>
     </row>
@@ -6245,7 +6358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I50"/>
+  <dimension ref="A1:I51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8113,6 +8226,43 @@
         <v>25</v>
       </c>
     </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45749.85645540509</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0x01,0x6a</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F51" t="n">
+        <v>400</v>
+      </c>
+      <c r="G51" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H51" t="n">
+        <v>362</v>
+      </c>
+      <c r="I51" t="n">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAG2_Database_update.xlsx
+++ b/SAG2_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I51"/>
+  <dimension ref="A1:I52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2334,6 +2334,43 @@
         <v>354</v>
       </c>
       <c r="I51" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45750.19417305556</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0x01,0x62</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
+        <v>400</v>
+      </c>
+      <c r="G52" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H52" t="n">
+        <v>354</v>
+      </c>
+      <c r="I52" t="n">
         <v>14</v>
       </c>
     </row>
@@ -2348,7 +2385,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I53"/>
+  <dimension ref="A1:I54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4428,6 +4465,45 @@
         <v>362</v>
       </c>
       <c r="I53" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45750.16596064815</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0x01,0x66</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F54" t="n">
+        <v>400</v>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>358</v>
+      </c>
+      <c r="I54" t="n">
         <v>25</v>
       </c>
     </row>
@@ -4442,7 +4518,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I51"/>
+  <dimension ref="A1:I52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6344,6 +6420,43 @@
         <v>354</v>
       </c>
       <c r="I51" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45750.22506553241</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0x01,0x62</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
+        <v>400</v>
+      </c>
+      <c r="G52" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H52" t="n">
+        <v>354</v>
+      </c>
+      <c r="I52" t="n">
         <v>20</v>
       </c>
     </row>
@@ -6358,7 +6471,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I51"/>
+  <dimension ref="A1:I52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8263,6 +8376,43 @@
         <v>25</v>
       </c>
     </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45750.35911744213</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0x01,0x6a</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
+        <v>400</v>
+      </c>
+      <c r="G52" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H52" t="n">
+        <v>362</v>
+      </c>
+      <c r="I52" t="n">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAG2_Database_update.xlsx
+++ b/SAG2_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I52"/>
+  <dimension ref="A1:I53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2371,6 +2371,43 @@
         <v>354</v>
       </c>
       <c r="I52" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45750.69791148148</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0x01,0x62</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F53" t="n">
+        <v>400</v>
+      </c>
+      <c r="G53" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H53" t="n">
+        <v>354</v>
+      </c>
+      <c r="I53" t="n">
         <v>14</v>
       </c>
     </row>
@@ -2385,7 +2422,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I54"/>
+  <dimension ref="A1:I55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4504,6 +4541,45 @@
         <v>358</v>
       </c>
       <c r="I54" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>45750.66854166667</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0x01,0x66</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F55" t="n">
+        <v>400</v>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>358</v>
+      </c>
+      <c r="I55" t="n">
         <v>25</v>
       </c>
     </row>
@@ -4518,7 +4594,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I52"/>
+  <dimension ref="A1:I53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6457,6 +6533,43 @@
         <v>354</v>
       </c>
       <c r="I52" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45750.72861877315</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0x01,0x62</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F53" t="n">
+        <v>400</v>
+      </c>
+      <c r="G53" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H53" t="n">
+        <v>354</v>
+      </c>
+      <c r="I53" t="n">
         <v>20</v>
       </c>
     </row>
@@ -6471,7 +6584,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I52"/>
+  <dimension ref="A1:I53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8413,6 +8526,43 @@
         <v>25</v>
       </c>
     </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45750.8616753125</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0x01,0x6a</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F53" t="n">
+        <v>400</v>
+      </c>
+      <c r="G53" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H53" t="n">
+        <v>362</v>
+      </c>
+      <c r="I53" t="n">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAG2_Database_update.xlsx
+++ b/SAG2_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I53"/>
+  <dimension ref="A1:I54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2408,6 +2408,43 @@
         <v>354</v>
       </c>
       <c r="I53" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45751.20176564815</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0x01,0x62</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F54" t="n">
+        <v>400</v>
+      </c>
+      <c r="G54" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H54" t="n">
+        <v>354</v>
+      </c>
+      <c r="I54" t="n">
         <v>14</v>
       </c>
     </row>
@@ -2422,7 +2459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I55"/>
+  <dimension ref="A1:I56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4580,6 +4617,45 @@
         <v>358</v>
       </c>
       <c r="I55" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>45751.17244212963</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0x01,0x66</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F56" t="n">
+        <v>400</v>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>358</v>
+      </c>
+      <c r="I56" t="n">
         <v>25</v>
       </c>
     </row>
@@ -4594,7 +4670,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I53"/>
+  <dimension ref="A1:I54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6570,6 +6646,43 @@
         <v>354</v>
       </c>
       <c r="I53" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45751.23185951389</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0x01,0x62</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F54" t="n">
+        <v>400</v>
+      </c>
+      <c r="G54" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H54" t="n">
+        <v>354</v>
+      </c>
+      <c r="I54" t="n">
         <v>20</v>
       </c>
     </row>
@@ -6584,7 +6697,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I53"/>
+  <dimension ref="A1:I54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8563,6 +8676,43 @@
         <v>25</v>
       </c>
     </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45751.36579568287</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0x01,0x66</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F54" t="n">
+        <v>400</v>
+      </c>
+      <c r="G54" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H54" t="n">
+        <v>358</v>
+      </c>
+      <c r="I54" t="n">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAG2_Database_update.xlsx
+++ b/SAG2_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I54"/>
+  <dimension ref="A1:I55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2445,6 +2445,43 @@
         <v>354</v>
       </c>
       <c r="I54" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>45751.70443925926</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0x01,0x5e</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F55" t="n">
+        <v>400</v>
+      </c>
+      <c r="G55" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H55" t="n">
+        <v>350</v>
+      </c>
+      <c r="I55" t="n">
         <v>14</v>
       </c>
     </row>
@@ -2459,7 +2496,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I56"/>
+  <dimension ref="A1:I57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4656,6 +4693,45 @@
         <v>358</v>
       </c>
       <c r="I56" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>45751.67511574074</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0x01,0x66</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F57" t="n">
+        <v>400</v>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>358</v>
+      </c>
+      <c r="I57" t="n">
         <v>25</v>
       </c>
     </row>
@@ -4670,7 +4746,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I54"/>
+  <dimension ref="A1:I55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6683,6 +6759,43 @@
         <v>354</v>
       </c>
       <c r="I54" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>45751.73562108797</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0x01,0x5e</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F55" t="n">
+        <v>400</v>
+      </c>
+      <c r="G55" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H55" t="n">
+        <v>350</v>
+      </c>
+      <c r="I55" t="n">
         <v>20</v>
       </c>
     </row>
@@ -6697,7 +6810,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I54"/>
+  <dimension ref="A1:I55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8713,6 +8826,43 @@
         <v>25</v>
       </c>
     </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>45751.86985818287</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0x01,0x66</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F55" t="n">
+        <v>400</v>
+      </c>
+      <c r="G55" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H55" t="n">
+        <v>358</v>
+      </c>
+      <c r="I55" t="n">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAG2_Database_update.xlsx
+++ b/SAG2_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I55"/>
+  <dimension ref="A1:I56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2482,6 +2482,43 @@
         <v>350</v>
       </c>
       <c r="I55" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>45752.20712444445</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0x01,0x5e</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F56" t="n">
+        <v>400</v>
+      </c>
+      <c r="G56" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H56" t="n">
+        <v>350</v>
+      </c>
+      <c r="I56" t="n">
         <v>14</v>
       </c>
     </row>
@@ -2496,7 +2533,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I57"/>
+  <dimension ref="A1:I58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4732,6 +4769,45 @@
         <v>358</v>
       </c>
       <c r="I57" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>45752.17625</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0x01,0x62</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F58" t="n">
+        <v>400</v>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>354</v>
+      </c>
+      <c r="I58" t="n">
         <v>25</v>
       </c>
     </row>
@@ -4746,7 +4822,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I55"/>
+  <dimension ref="A1:I56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6796,6 +6872,43 @@
         <v>350</v>
       </c>
       <c r="I55" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>45752.23778543981</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0x01,0x5e</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F56" t="n">
+        <v>400</v>
+      </c>
+      <c r="G56" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H56" t="n">
+        <v>350</v>
+      </c>
+      <c r="I56" t="n">
         <v>20</v>
       </c>
     </row>
@@ -6810,7 +6923,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I55"/>
+  <dimension ref="A1:I56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8863,6 +8976,43 @@
         <v>25</v>
       </c>
     </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>45752.3739091088</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0x01,0x66</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F56" t="n">
+        <v>400</v>
+      </c>
+      <c r="G56" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H56" t="n">
+        <v>358</v>
+      </c>
+      <c r="I56" t="n">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAG2_Database_update.xlsx
+++ b/SAG2_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I56"/>
+  <dimension ref="A1:I57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2519,6 +2519,43 @@
         <v>350</v>
       </c>
       <c r="I56" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>45752.71053879629</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0x01,0x5e</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F57" t="n">
+        <v>400</v>
+      </c>
+      <c r="G57" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H57" t="n">
+        <v>350</v>
+      </c>
+      <c r="I57" t="n">
         <v>14</v>
       </c>
     </row>
@@ -2533,7 +2570,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I58"/>
+  <dimension ref="A1:I59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4808,6 +4845,45 @@
         <v>354</v>
       </c>
       <c r="I58" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>45752.67828703704</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0x01,0x62</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F59" t="n">
+        <v>400</v>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>354</v>
+      </c>
+      <c r="I59" t="n">
         <v>25</v>
       </c>
     </row>
@@ -4822,7 +4898,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I56"/>
+  <dimension ref="A1:I57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6909,6 +6985,43 @@
         <v>350</v>
       </c>
       <c r="I56" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>45752.74055164352</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0x01,0x5e</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F57" t="n">
+        <v>400</v>
+      </c>
+      <c r="G57" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H57" t="n">
+        <v>350</v>
+      </c>
+      <c r="I57" t="n">
         <v>20</v>
       </c>
     </row>
@@ -6923,7 +7036,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I56"/>
+  <dimension ref="A1:I57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9013,6 +9126,43 @@
         <v>25</v>
       </c>
     </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>45752.87703410879</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0x01,0x66</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F57" t="n">
+        <v>400</v>
+      </c>
+      <c r="G57" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H57" t="n">
+        <v>358</v>
+      </c>
+      <c r="I57" t="n">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAG2_Database_update.xlsx
+++ b/SAG2_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I57"/>
+  <dimension ref="A1:I58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2556,6 +2556,43 @@
         <v>350</v>
       </c>
       <c r="I57" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>45753.21278416667</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0x01,0x5e</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F58" t="n">
+        <v>400</v>
+      </c>
+      <c r="G58" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H58" t="n">
+        <v>350</v>
+      </c>
+      <c r="I58" t="n">
         <v>14</v>
       </c>
     </row>
@@ -2570,7 +2607,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I59"/>
+  <dimension ref="A1:I60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4884,6 +4921,45 @@
         <v>354</v>
       </c>
       <c r="I59" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>45753.18106481482</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0x01,0x62</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F60" t="n">
+        <v>400</v>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>354</v>
+      </c>
+      <c r="I60" t="n">
         <v>25</v>
       </c>
     </row>
@@ -4898,7 +4974,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I57"/>
+  <dimension ref="A1:I58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7022,6 +7098,43 @@
         <v>350</v>
       </c>
       <c r="I57" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>45753.24469516204</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0x01,0x5e</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F58" t="n">
+        <v>400</v>
+      </c>
+      <c r="G58" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H58" t="n">
+        <v>350</v>
+      </c>
+      <c r="I58" t="n">
         <v>20</v>
       </c>
     </row>
@@ -7036,7 +7149,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I57"/>
+  <dimension ref="A1:I58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9163,6 +9276,43 @@
         <v>25</v>
       </c>
     </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>45753.37799475694</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0x01,0x62</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F58" t="n">
+        <v>400</v>
+      </c>
+      <c r="G58" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H58" t="n">
+        <v>354</v>
+      </c>
+      <c r="I58" t="n">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAG2_Database_update.xlsx
+++ b/SAG2_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I58"/>
+  <dimension ref="A1:I59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2593,6 +2593,43 @@
         <v>350</v>
       </c>
       <c r="I58" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>45753.71616379629</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0x01,0x5a</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F59" t="n">
+        <v>400</v>
+      </c>
+      <c r="G59" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H59" t="n">
+        <v>346</v>
+      </c>
+      <c r="I59" t="n">
         <v>14</v>
       </c>
     </row>
@@ -2607,7 +2644,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I60"/>
+  <dimension ref="A1:I61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4960,6 +4997,45 @@
         <v>354</v>
       </c>
       <c r="I60" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>45753.68271990741</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0x01,0x62</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F61" t="n">
+        <v>400</v>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>354</v>
+      </c>
+      <c r="I61" t="n">
         <v>25</v>
       </c>
     </row>
@@ -4974,7 +5050,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I58"/>
+  <dimension ref="A1:I59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7135,6 +7211,43 @@
         <v>350</v>
       </c>
       <c r="I58" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>45753.74834099537</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0x01,0x5a</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F59" t="n">
+        <v>400</v>
+      </c>
+      <c r="G59" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H59" t="n">
+        <v>346</v>
+      </c>
+      <c r="I59" t="n">
         <v>20</v>
       </c>
     </row>
@@ -7149,7 +7262,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I58"/>
+  <dimension ref="A1:I59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9313,6 +9426,43 @@
         <v>25</v>
       </c>
     </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>45753.88044846065</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0x01,0x62</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F59" t="n">
+        <v>400</v>
+      </c>
+      <c r="G59" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H59" t="n">
+        <v>354</v>
+      </c>
+      <c r="I59" t="n">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAG2_Database_update.xlsx
+++ b/SAG2_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I59"/>
+  <dimension ref="A1:I60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2630,6 +2630,43 @@
         <v>346</v>
       </c>
       <c r="I59" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>45754.21704342592</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0x01,0x5a</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F60" t="n">
+        <v>400</v>
+      </c>
+      <c r="G60" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H60" t="n">
+        <v>346</v>
+      </c>
+      <c r="I60" t="n">
         <v>14</v>
       </c>
     </row>
@@ -2644,7 +2681,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I61"/>
+  <dimension ref="A1:I62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5036,6 +5073,45 @@
         <v>354</v>
       </c>
       <c r="I61" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>45754.18472222222</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0x01,0x5e</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F62" t="n">
+        <v>400</v>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>350</v>
+      </c>
+      <c r="I62" t="n">
         <v>25</v>
       </c>
     </row>
@@ -5050,7 +5126,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I59"/>
+  <dimension ref="A1:I60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7248,6 +7324,43 @@
         <v>346</v>
       </c>
       <c r="I59" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>45754.25228775463</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0x01,0x5a</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F60" t="n">
+        <v>400</v>
+      </c>
+      <c r="G60" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H60" t="n">
+        <v>346</v>
+      </c>
+      <c r="I60" t="n">
         <v>20</v>
       </c>
     </row>
@@ -7262,7 +7375,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I59"/>
+  <dimension ref="A1:I60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9463,6 +9576,43 @@
         <v>25</v>
       </c>
     </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>45754.38132809028</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0x01,0x62</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F60" t="n">
+        <v>400</v>
+      </c>
+      <c r="G60" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H60" t="n">
+        <v>354</v>
+      </c>
+      <c r="I60" t="n">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAG2_Database_update.xlsx
+++ b/SAG2_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I60"/>
+  <dimension ref="A1:I61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2667,6 +2667,43 @@
         <v>346</v>
       </c>
       <c r="I60" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>45754.72118694444</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0x01,0x5a</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F61" t="n">
+        <v>400</v>
+      </c>
+      <c r="G61" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H61" t="n">
+        <v>346</v>
+      </c>
+      <c r="I61" t="n">
         <v>14</v>
       </c>
     </row>
@@ -2681,7 +2718,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I62"/>
+  <dimension ref="A1:I63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5112,6 +5149,45 @@
         <v>350</v>
       </c>
       <c r="I62" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>45754.68796296296</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0x01,0x5e</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F63" t="n">
+        <v>400</v>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>350</v>
+      </c>
+      <c r="I63" t="n">
         <v>25</v>
       </c>
     </row>
@@ -5126,7 +5202,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I60"/>
+  <dimension ref="A1:I61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7361,6 +7437,43 @@
         <v>346</v>
       </c>
       <c r="I60" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>45754.75482247685</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0x01,0x5a</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F61" t="n">
+        <v>400</v>
+      </c>
+      <c r="G61" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H61" t="n">
+        <v>346</v>
+      </c>
+      <c r="I61" t="n">
         <v>20</v>
       </c>
     </row>
@@ -7375,7 +7488,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I60"/>
+  <dimension ref="A1:I61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9613,6 +9726,43 @@
         <v>25</v>
       </c>
     </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>45754.88322623842</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0x01,0x62</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F61" t="n">
+        <v>400</v>
+      </c>
+      <c r="G61" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H61" t="n">
+        <v>354</v>
+      </c>
+      <c r="I61" t="n">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAG2_Database_update.xlsx
+++ b/SAG2_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I61"/>
+  <dimension ref="A1:I68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2704,6 +2704,265 @@
         <v>346</v>
       </c>
       <c r="I61" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>45755.22440453704</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0x01,0x5a</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F62" t="n">
+        <v>400</v>
+      </c>
+      <c r="G62" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H62" t="n">
+        <v>346</v>
+      </c>
+      <c r="I62" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>45755.72802722222</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0x01,0x56</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F63" t="n">
+        <v>400</v>
+      </c>
+      <c r="G63" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H63" t="n">
+        <v>342</v>
+      </c>
+      <c r="I63" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>45756.2302262963</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0x01,0x56</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F64" t="n">
+        <v>400</v>
+      </c>
+      <c r="G64" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H64" t="n">
+        <v>342</v>
+      </c>
+      <c r="I64" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>45756.73339759259</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0x01,0x56</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F65" t="n">
+        <v>400</v>
+      </c>
+      <c r="G65" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H65" t="n">
+        <v>342</v>
+      </c>
+      <c r="I65" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>45757.23493694444</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0x01,0x56</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F66" t="n">
+        <v>400</v>
+      </c>
+      <c r="G66" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H66" t="n">
+        <v>342</v>
+      </c>
+      <c r="I66" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>45757.73874481481</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0x01,0x56</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F67" t="n">
+        <v>400</v>
+      </c>
+      <c r="G67" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H67" t="n">
+        <v>342</v>
+      </c>
+      <c r="I67" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>45758.24195083333</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0x01,0x52</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F68" t="n">
+        <v>400</v>
+      </c>
+      <c r="G68" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H68" t="n">
+        <v>338</v>
+      </c>
+      <c r="I68" t="n">
         <v>14</v>
       </c>
     </row>
@@ -2718,7 +2977,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I63"/>
+  <dimension ref="A1:I70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5188,6 +5447,279 @@
         <v>350</v>
       </c>
       <c r="I63" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>45755.19020833333</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0x01,0x5e</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F64" t="n">
+        <v>400</v>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>350</v>
+      </c>
+      <c r="I64" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>45755.69155092593</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0x01,0x5e</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F65" t="n">
+        <v>400</v>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>350</v>
+      </c>
+      <c r="I65" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>45756.19365740741</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0x01,0x5e</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F66" t="n">
+        <v>400</v>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>350</v>
+      </c>
+      <c r="I66" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>45756.69509259259</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0x01,0x5a</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F67" t="n">
+        <v>400</v>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>346</v>
+      </c>
+      <c r="I67" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>45757.19798611111</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0x01,0x5a</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F68" t="n">
+        <v>400</v>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>346</v>
+      </c>
+      <c r="I68" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>45757.69890046296</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0x01,0x5a</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F69" t="n">
+        <v>400</v>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>346</v>
+      </c>
+      <c r="I69" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>45758.2028125</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0x01,0x5a</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F70" t="n">
+        <v>400</v>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>346</v>
+      </c>
+      <c r="I70" t="n">
         <v>25</v>
       </c>
     </row>
@@ -5202,7 +5734,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I61"/>
+  <dimension ref="A1:I68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7474,6 +8006,265 @@
         <v>346</v>
       </c>
       <c r="I61" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>45755.25702155093</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0x01,0x5a</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F62" t="n">
+        <v>400</v>
+      </c>
+      <c r="G62" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H62" t="n">
+        <v>346</v>
+      </c>
+      <c r="I62" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>45755.76010025463</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0x01,0x56</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F63" t="n">
+        <v>400</v>
+      </c>
+      <c r="G63" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H63" t="n">
+        <v>342</v>
+      </c>
+      <c r="I63" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>45756.26332942129</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0x01,0x56</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F64" t="n">
+        <v>400</v>
+      </c>
+      <c r="G64" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H64" t="n">
+        <v>342</v>
+      </c>
+      <c r="I64" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>45756.76697525463</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0x01,0x56</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F65" t="n">
+        <v>400</v>
+      </c>
+      <c r="G65" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H65" t="n">
+        <v>342</v>
+      </c>
+      <c r="I65" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>45757.26976460648</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0x01,0x56</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F66" t="n">
+        <v>400</v>
+      </c>
+      <c r="G66" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H66" t="n">
+        <v>342</v>
+      </c>
+      <c r="I66" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>45757.77094516204</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0x01,0x56</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F67" t="n">
+        <v>400</v>
+      </c>
+      <c r="G67" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H67" t="n">
+        <v>342</v>
+      </c>
+      <c r="I67" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>45758.27425534722</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0x01,0x52</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F68" t="n">
+        <v>400</v>
+      </c>
+      <c r="G68" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H68" t="n">
+        <v>338</v>
+      </c>
+      <c r="I68" t="n">
         <v>20</v>
       </c>
     </row>
@@ -7488,7 +8279,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I61"/>
+  <dimension ref="A1:I68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9763,6 +10554,265 @@
         <v>25</v>
       </c>
     </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>45755.38657114583</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0x01,0x5e</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F62" t="n">
+        <v>400</v>
+      </c>
+      <c r="G62" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H62" t="n">
+        <v>350</v>
+      </c>
+      <c r="I62" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>45755.88932577546</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0x01,0x5e</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F63" t="n">
+        <v>400</v>
+      </c>
+      <c r="G63" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H63" t="n">
+        <v>350</v>
+      </c>
+      <c r="I63" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>45756.39213827546</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0x01,0x5e</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F64" t="n">
+        <v>400</v>
+      </c>
+      <c r="G64" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H64" t="n">
+        <v>350</v>
+      </c>
+      <c r="I64" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>45756.89471929398</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0x01,0x5e</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F65" t="n">
+        <v>400</v>
+      </c>
+      <c r="G65" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H65" t="n">
+        <v>350</v>
+      </c>
+      <c r="I65" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>45757.39794846065</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0x01,0x5e</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F66" t="n">
+        <v>400</v>
+      </c>
+      <c r="G66" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H66" t="n">
+        <v>350</v>
+      </c>
+      <c r="I66" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>45757.89889753472</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0x01,0x5a</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F67" t="n">
+        <v>400</v>
+      </c>
+      <c r="G67" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H67" t="n">
+        <v>346</v>
+      </c>
+      <c r="I67" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>45758.40013596065</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0x01,0x5a</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F68" t="n">
+        <v>400</v>
+      </c>
+      <c r="G68" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H68" t="n">
+        <v>346</v>
+      </c>
+      <c r="I68" t="n">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAG2_Database_update.xlsx
+++ b/SAG2_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I68"/>
+  <dimension ref="A1:I69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2963,6 +2963,43 @@
         <v>338</v>
       </c>
       <c r="I68" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>45758.7455387963</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0x01,0x52</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F69" t="n">
+        <v>400</v>
+      </c>
+      <c r="G69" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H69" t="n">
+        <v>338</v>
+      </c>
+      <c r="I69" t="n">
         <v>14</v>
       </c>
     </row>
@@ -2977,7 +3014,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I70"/>
+  <dimension ref="A1:I71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5720,6 +5757,45 @@
         <v>346</v>
       </c>
       <c r="I70" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>45758.70621527778</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0x01,0x5a</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F71" t="n">
+        <v>400</v>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>346</v>
+      </c>
+      <c r="I71" t="n">
         <v>25</v>
       </c>
     </row>
@@ -5734,7 +5810,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I68"/>
+  <dimension ref="A1:I69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8265,6 +8341,43 @@
         <v>338</v>
       </c>
       <c r="I68" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>45758.77741506945</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0x01,0x52</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F69" t="n">
+        <v>400</v>
+      </c>
+      <c r="G69" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H69" t="n">
+        <v>338</v>
+      </c>
+      <c r="I69" t="n">
         <v>20</v>
       </c>
     </row>
@@ -8279,7 +8392,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I68"/>
+  <dimension ref="A1:I69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10813,6 +10926,43 @@
         <v>25</v>
       </c>
     </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>45758.90231188657</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0x01,0x5a</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F69" t="n">
+        <v>400</v>
+      </c>
+      <c r="G69" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H69" t="n">
+        <v>346</v>
+      </c>
+      <c r="I69" t="n">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAG2_Database_update.xlsx
+++ b/SAG2_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I69"/>
+  <dimension ref="A1:I70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3000,6 +3000,43 @@
         <v>338</v>
       </c>
       <c r="I69" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>45759.24631425926</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0x01,0x52</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F70" t="n">
+        <v>400</v>
+      </c>
+      <c r="G70" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H70" t="n">
+        <v>338</v>
+      </c>
+      <c r="I70" t="n">
         <v>14</v>
       </c>
     </row>
@@ -3014,7 +3051,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I71"/>
+  <dimension ref="A1:I72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5796,6 +5833,45 @@
         <v>346</v>
       </c>
       <c r="I71" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>45759.20769675926</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0x01,0x56</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F72" t="n">
+        <v>400</v>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>342</v>
+      </c>
+      <c r="I72" t="n">
         <v>25</v>
       </c>
     </row>
@@ -5810,7 +5886,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I69"/>
+  <dimension ref="A1:I70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8378,6 +8454,43 @@
         <v>338</v>
       </c>
       <c r="I69" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>45759.27850303241</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0x01,0x52</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F70" t="n">
+        <v>400</v>
+      </c>
+      <c r="G70" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H70" t="n">
+        <v>338</v>
+      </c>
+      <c r="I70" t="n">
         <v>20</v>
       </c>
     </row>
@@ -8392,7 +8505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I69"/>
+  <dimension ref="A1:I70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10963,6 +11076,43 @@
         <v>25</v>
       </c>
     </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>45759.40496234954</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0x01,0x5a</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F70" t="n">
+        <v>400</v>
+      </c>
+      <c r="G70" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H70" t="n">
+        <v>346</v>
+      </c>
+      <c r="I70" t="n">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAG2_Database_update.xlsx
+++ b/SAG2_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I70"/>
+  <dimension ref="A1:I71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3037,6 +3037,43 @@
         <v>338</v>
       </c>
       <c r="I70" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>45759.74811981482</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0x01,0x52</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F71" t="n">
+        <v>400</v>
+      </c>
+      <c r="G71" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H71" t="n">
+        <v>338</v>
+      </c>
+      <c r="I71" t="n">
         <v>14</v>
       </c>
     </row>
@@ -3051,7 +3088,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I72"/>
+  <dimension ref="A1:I73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5872,6 +5909,45 @@
         <v>342</v>
       </c>
       <c r="I72" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>45759.70946759259</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0x01,0x56</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F73" t="n">
+        <v>400</v>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>342</v>
+      </c>
+      <c r="I73" t="n">
         <v>25</v>
       </c>
     </row>
@@ -5886,7 +5962,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I70"/>
+  <dimension ref="A1:I71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8491,6 +8567,43 @@
         <v>338</v>
       </c>
       <c r="I70" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>45759.78168590278</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0x01,0x52</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F71" t="n">
+        <v>400</v>
+      </c>
+      <c r="G71" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H71" t="n">
+        <v>338</v>
+      </c>
+      <c r="I71" t="n">
         <v>20</v>
       </c>
     </row>
@@ -8505,7 +8618,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I70"/>
+  <dimension ref="A1:I71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11113,6 +11226,43 @@
         <v>25</v>
       </c>
     </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>45759.90598086805</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0x01,0x5a</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F71" t="n">
+        <v>400</v>
+      </c>
+      <c r="G71" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H71" t="n">
+        <v>346</v>
+      </c>
+      <c r="I71" t="n">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAG2_Database_update.xlsx
+++ b/SAG2_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I71"/>
+  <dimension ref="A1:I72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3074,6 +3074,43 @@
         <v>338</v>
       </c>
       <c r="I71" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>45760.25007583333</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0x01,0x52</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F72" t="n">
+        <v>400</v>
+      </c>
+      <c r="G72" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H72" t="n">
+        <v>338</v>
+      </c>
+      <c r="I72" t="n">
         <v>14</v>
       </c>
     </row>
@@ -3088,7 +3125,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I73"/>
+  <dimension ref="A1:I74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5948,6 +5985,45 @@
         <v>342</v>
       </c>
       <c r="I73" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>45760.21266203704</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0x01,0x56</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F74" t="n">
+        <v>400</v>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>342</v>
+      </c>
+      <c r="I74" t="n">
         <v>25</v>
       </c>
     </row>
@@ -5962,7 +6038,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I71"/>
+  <dimension ref="A1:I72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8604,6 +8680,43 @@
         <v>338</v>
       </c>
       <c r="I71" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>45760.283908125</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0x01,0x52</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F72" t="n">
+        <v>400</v>
+      </c>
+      <c r="G72" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H72" t="n">
+        <v>338</v>
+      </c>
+      <c r="I72" t="n">
         <v>20</v>
       </c>
     </row>
@@ -8618,7 +8731,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I71"/>
+  <dimension ref="A1:I72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11263,6 +11376,43 @@
         <v>25</v>
       </c>
     </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>45760.40883966435</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0x01,0x56</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F72" t="n">
+        <v>400</v>
+      </c>
+      <c r="G72" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H72" t="n">
+        <v>342</v>
+      </c>
+      <c r="I72" t="n">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAG2_Database_update.xlsx
+++ b/SAG2_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I72"/>
+  <dimension ref="A1:I73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3111,6 +3111,43 @@
         <v>338</v>
       </c>
       <c r="I72" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>45760.75132583333</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0x01,0x4e</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F73" t="n">
+        <v>400</v>
+      </c>
+      <c r="G73" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H73" t="n">
+        <v>334</v>
+      </c>
+      <c r="I73" t="n">
         <v>14</v>
       </c>
     </row>
@@ -3125,7 +3162,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I74"/>
+  <dimension ref="A1:I75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6024,6 +6061,45 @@
         <v>342</v>
       </c>
       <c r="I74" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>45760.71534722222</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0x01,0x56</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F75" t="n">
+        <v>400</v>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>342</v>
+      </c>
+      <c r="I75" t="n">
         <v>25</v>
       </c>
     </row>
@@ -6038,7 +6114,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I72"/>
+  <dimension ref="A1:I73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8717,6 +8793,43 @@
         <v>338</v>
       </c>
       <c r="I72" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>45760.78471831018</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0x01,0x4e</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F73" t="n">
+        <v>400</v>
+      </c>
+      <c r="G73" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H73" t="n">
+        <v>334</v>
+      </c>
+      <c r="I73" t="n">
         <v>20</v>
       </c>
     </row>
@@ -8731,7 +8844,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I72"/>
+  <dimension ref="A1:I73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11413,6 +11526,43 @@
         <v>25</v>
       </c>
     </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>45760.91061049768</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0x01,0x56</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F73" t="n">
+        <v>400</v>
+      </c>
+      <c r="G73" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H73" t="n">
+        <v>342</v>
+      </c>
+      <c r="I73" t="n">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAG2_Database_update.xlsx
+++ b/SAG2_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I73"/>
+  <dimension ref="A1:I74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3148,6 +3148,43 @@
         <v>334</v>
       </c>
       <c r="I73" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>45761.25474018518</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0x01,0x4e</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F74" t="n">
+        <v>400</v>
+      </c>
+      <c r="G74" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H74" t="n">
+        <v>334</v>
+      </c>
+      <c r="I74" t="n">
         <v>14</v>
       </c>
     </row>
@@ -3162,7 +3199,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I75"/>
+  <dimension ref="A1:I76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6100,6 +6137,45 @@
         <v>342</v>
       </c>
       <c r="I75" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>45761.21934027778</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0x01,0x52</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F76" t="n">
+        <v>400</v>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>338</v>
+      </c>
+      <c r="I76" t="n">
         <v>25</v>
       </c>
     </row>
@@ -6114,7 +6190,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I73"/>
+  <dimension ref="A1:I74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8830,6 +8906,43 @@
         <v>334</v>
       </c>
       <c r="I73" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>45761.28654701389</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0x01,0x4e</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F74" t="n">
+        <v>400</v>
+      </c>
+      <c r="G74" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H74" t="n">
+        <v>334</v>
+      </c>
+      <c r="I74" t="n">
         <v>20</v>
       </c>
     </row>
@@ -8844,7 +8957,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I73"/>
+  <dimension ref="A1:I74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11563,6 +11676,43 @@
         <v>25</v>
       </c>
     </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>45761.41321466435</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0x01,0x56</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F74" t="n">
+        <v>400</v>
+      </c>
+      <c r="G74" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H74" t="n">
+        <v>342</v>
+      </c>
+      <c r="I74" t="n">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAG2_Database_update.xlsx
+++ b/SAG2_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I74"/>
+  <dimension ref="A1:I75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3185,6 +3185,43 @@
         <v>334</v>
       </c>
       <c r="I74" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>45761.75865222222</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0x01,0x4e</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F75" t="n">
+        <v>400</v>
+      </c>
+      <c r="G75" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H75" t="n">
+        <v>334</v>
+      </c>
+      <c r="I75" t="n">
         <v>14</v>
       </c>
     </row>
@@ -3199,7 +3236,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I76"/>
+  <dimension ref="A1:I77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6176,6 +6213,45 @@
         <v>338</v>
       </c>
       <c r="I76" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>45761.72050925926</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0x01,0x52</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F77" t="n">
+        <v>400</v>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>338</v>
+      </c>
+      <c r="I77" t="n">
         <v>25</v>
       </c>
     </row>
@@ -6190,7 +6266,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I74"/>
+  <dimension ref="A1:I75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8943,6 +9019,43 @@
         <v>334</v>
       </c>
       <c r="I74" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>45761.78976460648</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0x01,0x4e</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F75" t="n">
+        <v>400</v>
+      </c>
+      <c r="G75" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H75" t="n">
+        <v>334</v>
+      </c>
+      <c r="I75" t="n">
         <v>20</v>
       </c>
     </row>
@@ -8957,7 +9070,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I74"/>
+  <dimension ref="A1:I75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11713,6 +11826,43 @@
         <v>25</v>
       </c>
     </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>45761.91668688657</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0x01,0x56</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F75" t="n">
+        <v>400</v>
+      </c>
+      <c r="G75" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H75" t="n">
+        <v>342</v>
+      </c>
+      <c r="I75" t="n">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAG2_Database_update.xlsx
+++ b/SAG2_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I75"/>
+  <dimension ref="A1:I76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3222,6 +3222,43 @@
         <v>334</v>
       </c>
       <c r="I75" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>45762.26023787037</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0x01,0x4e</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F76" t="n">
+        <v>400</v>
+      </c>
+      <c r="G76" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H76" t="n">
+        <v>334</v>
+      </c>
+      <c r="I76" t="n">
         <v>14</v>
       </c>
     </row>
@@ -3236,7 +3273,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I77"/>
+  <dimension ref="A1:I78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6252,6 +6289,45 @@
         <v>338</v>
       </c>
       <c r="I77" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>45762.22238425926</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0x01,0x52</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F78" t="n">
+        <v>400</v>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>338</v>
+      </c>
+      <c r="I78" t="n">
         <v>25</v>
       </c>
     </row>
@@ -6266,7 +6342,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I75"/>
+  <dimension ref="A1:I76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9056,6 +9132,43 @@
         <v>334</v>
       </c>
       <c r="I75" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>45762.29122293981</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0x01,0x4e</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F76" t="n">
+        <v>400</v>
+      </c>
+      <c r="G76" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H76" t="n">
+        <v>334</v>
+      </c>
+      <c r="I76" t="n">
         <v>20</v>
       </c>
     </row>
@@ -9070,7 +9183,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I75"/>
+  <dimension ref="A1:I76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11863,6 +11976,43 @@
         <v>25</v>
       </c>
     </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>45762.41875864584</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0x01,0x52</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F76" t="n">
+        <v>400</v>
+      </c>
+      <c r="G76" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H76" t="n">
+        <v>338</v>
+      </c>
+      <c r="I76" t="n">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAG2_Database_update.xlsx
+++ b/SAG2_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I76"/>
+  <dimension ref="A1:I77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3259,6 +3259,43 @@
         <v>334</v>
       </c>
       <c r="I76" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>45762.76107120371</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0x01,0x4a</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F77" t="n">
+        <v>400</v>
+      </c>
+      <c r="G77" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H77" t="n">
+        <v>330</v>
+      </c>
+      <c r="I77" t="n">
         <v>14</v>
       </c>
     </row>
@@ -3273,7 +3310,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I78"/>
+  <dimension ref="A1:I79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6328,6 +6365,45 @@
         <v>338</v>
       </c>
       <c r="I78" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>45762.72451388889</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0x01,0x52</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F79" t="n">
+        <v>400</v>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>338</v>
+      </c>
+      <c r="I79" t="n">
         <v>25</v>
       </c>
     </row>
@@ -6342,7 +6418,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I76"/>
+  <dimension ref="A1:I77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9169,6 +9245,43 @@
         <v>334</v>
       </c>
       <c r="I76" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>45762.79501923611</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0x01,0x4a</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F77" t="n">
+        <v>400</v>
+      </c>
+      <c r="G77" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H77" t="n">
+        <v>330</v>
+      </c>
+      <c r="I77" t="n">
         <v>20</v>
       </c>
     </row>
@@ -9183,7 +9296,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I76"/>
+  <dimension ref="A1:I77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12013,6 +12126,43 @@
         <v>25</v>
       </c>
     </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>45762.92137438658</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0x01,0x52</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F77" t="n">
+        <v>400</v>
+      </c>
+      <c r="G77" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H77" t="n">
+        <v>338</v>
+      </c>
+      <c r="I77" t="n">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAG2_Database_update.xlsx
+++ b/SAG2_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I77"/>
+  <dimension ref="A1:I78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3296,6 +3296,43 @@
         <v>330</v>
       </c>
       <c r="I77" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>45763.26375638889</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0x01,0x4a</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F78" t="n">
+        <v>400</v>
+      </c>
+      <c r="G78" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H78" t="n">
+        <v>330</v>
+      </c>
+      <c r="I78" t="n">
         <v>14</v>
       </c>
     </row>
@@ -3310,7 +3347,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I79"/>
+  <dimension ref="A1:I80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6404,6 +6441,45 @@
         <v>338</v>
       </c>
       <c r="I79" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>45763.22726851852</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0x01,0x4e</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F80" t="n">
+        <v>400</v>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>334</v>
+      </c>
+      <c r="I80" t="n">
         <v>25</v>
       </c>
     </row>
@@ -6418,7 +6494,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I77"/>
+  <dimension ref="A1:I78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9282,6 +9358,43 @@
         <v>330</v>
       </c>
       <c r="I77" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>45763.297658125</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0x01,0x4a</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F78" t="n">
+        <v>400</v>
+      </c>
+      <c r="G78" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H78" t="n">
+        <v>330</v>
+      </c>
+      <c r="I78" t="n">
         <v>20</v>
       </c>
     </row>
@@ -9296,7 +9409,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I77"/>
+  <dimension ref="A1:I78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12163,6 +12276,43 @@
         <v>25</v>
       </c>
     </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>45763.42206883102</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0x01,0x52</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F78" t="n">
+        <v>400</v>
+      </c>
+      <c r="G78" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H78" t="n">
+        <v>338</v>
+      </c>
+      <c r="I78" t="n">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAG2_Database_update.xlsx
+++ b/SAG2_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I78"/>
+  <dimension ref="A1:I79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3333,6 +3333,43 @@
         <v>330</v>
       </c>
       <c r="I78" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>45763.7654925</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0x01,0x4a</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F79" t="n">
+        <v>400</v>
+      </c>
+      <c r="G79" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H79" t="n">
+        <v>330</v>
+      </c>
+      <c r="I79" t="n">
         <v>14</v>
       </c>
     </row>
@@ -3347,7 +3384,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I80"/>
+  <dimension ref="A1:I81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6480,6 +6517,45 @@
         <v>334</v>
       </c>
       <c r="I80" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>45763.72850694445</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0x01,0x4e</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F81" t="n">
+        <v>400</v>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>334</v>
+      </c>
+      <c r="I81" t="n">
         <v>25</v>
       </c>
     </row>
@@ -6494,7 +6570,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I78"/>
+  <dimension ref="A1:I79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9395,6 +9471,43 @@
         <v>330</v>
       </c>
       <c r="I78" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>45763.80038960648</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0x01,0x4a</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F79" t="n">
+        <v>400</v>
+      </c>
+      <c r="G79" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H79" t="n">
+        <v>330</v>
+      </c>
+      <c r="I79" t="n">
         <v>20</v>
       </c>
     </row>
@@ -9409,7 +9522,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I78"/>
+  <dimension ref="A1:I79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12313,6 +12426,43 @@
         <v>25</v>
       </c>
     </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>45763.92296003472</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0x01,0x52</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F79" t="n">
+        <v>400</v>
+      </c>
+      <c r="G79" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H79" t="n">
+        <v>338</v>
+      </c>
+      <c r="I79" t="n">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAG2_Database_update.xlsx
+++ b/SAG2_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I79"/>
+  <dimension ref="A1:I89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3370,6 +3370,376 @@
         <v>330</v>
       </c>
       <c r="I79" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>45764.26754111111</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0x01,0x4a</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F80" t="n">
+        <v>400</v>
+      </c>
+      <c r="G80" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H80" t="n">
+        <v>330</v>
+      </c>
+      <c r="I80" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>45764.7699137963</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0x01,0x46</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F81" t="n">
+        <v>400</v>
+      </c>
+      <c r="G81" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H81" t="n">
+        <v>326</v>
+      </c>
+      <c r="I81" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>45765.27136055555</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0x01,0x46</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F82" t="n">
+        <v>400</v>
+      </c>
+      <c r="G82" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H82" t="n">
+        <v>326</v>
+      </c>
+      <c r="I82" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>45765.77454342593</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0x01,0x46</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F83" t="n">
+        <v>400</v>
+      </c>
+      <c r="G83" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H83" t="n">
+        <v>326</v>
+      </c>
+      <c r="I83" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>45766.27652259259</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0x01,0x46</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F84" t="n">
+        <v>400</v>
+      </c>
+      <c r="G84" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H84" t="n">
+        <v>326</v>
+      </c>
+      <c r="I84" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>45766.77811981481</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0x01,0x42</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F85" t="n">
+        <v>400</v>
+      </c>
+      <c r="G85" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H85" t="n">
+        <v>322</v>
+      </c>
+      <c r="I85" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>45767.27935824074</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0x01,0x42</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F86" t="n">
+        <v>400</v>
+      </c>
+      <c r="G86" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H86" t="n">
+        <v>322</v>
+      </c>
+      <c r="I86" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>45767.78313138889</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0x01,0x42</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F87" t="n">
+        <v>400</v>
+      </c>
+      <c r="G87" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H87" t="n">
+        <v>322</v>
+      </c>
+      <c r="I87" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>45768.28634898148</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0x01,0x42</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F88" t="n">
+        <v>400</v>
+      </c>
+      <c r="G88" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H88" t="n">
+        <v>322</v>
+      </c>
+      <c r="I88" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>45768.78717074074</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0x01,0x3e</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F89" t="n">
+        <v>400</v>
+      </c>
+      <c r="G89" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H89" t="n">
+        <v>318</v>
+      </c>
+      <c r="I89" t="n">
         <v>14</v>
       </c>
     </row>
@@ -3384,7 +3754,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I81"/>
+  <dimension ref="A1:I91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6556,6 +6926,396 @@
         <v>334</v>
       </c>
       <c r="I81" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>45764.23172453704</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0x01,0x4e</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F82" t="n">
+        <v>400</v>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>334</v>
+      </c>
+      <c r="I82" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>45764.73481481482</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0x01,0x4e</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F83" t="n">
+        <v>400</v>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>334</v>
+      </c>
+      <c r="I83" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>45765.23751157407</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0x01,0x4a</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F84" t="n">
+        <v>400</v>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>330</v>
+      </c>
+      <c r="I84" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>45765.74128472222</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0x01,0x4a</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F85" t="n">
+        <v>400</v>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>330</v>
+      </c>
+      <c r="I85" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>45766.24456018519</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0x01,0x4a</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F86" t="n">
+        <v>400</v>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>330</v>
+      </c>
+      <c r="I86" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>45766.74650462963</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0x01,0x4a</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F87" t="n">
+        <v>400</v>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>330</v>
+      </c>
+      <c r="I87" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>45767.2475</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0x01,0x46</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F88" t="n">
+        <v>400</v>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>326</v>
+      </c>
+      <c r="I88" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>45767.74913194445</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0x01,0x46</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F89" t="n">
+        <v>400</v>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>326</v>
+      </c>
+      <c r="I89" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>45768.25061342592</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0x01,0x46</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F90" t="n">
+        <v>400</v>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>326</v>
+      </c>
+      <c r="I90" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>45768.75409722222</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0x01,0x46</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F91" t="n">
+        <v>400</v>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>326</v>
+      </c>
+      <c r="I91" t="n">
         <v>25</v>
       </c>
     </row>
@@ -6570,7 +7330,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I79"/>
+  <dimension ref="A1:I89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9508,6 +10268,376 @@
         <v>330</v>
       </c>
       <c r="I79" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>45764.30162803241</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0x01,0x4a</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F80" t="n">
+        <v>400</v>
+      </c>
+      <c r="G80" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H80" t="n">
+        <v>330</v>
+      </c>
+      <c r="I80" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>45764.80341043982</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0x01,0x46</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F81" t="n">
+        <v>400</v>
+      </c>
+      <c r="G81" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H81" t="n">
+        <v>326</v>
+      </c>
+      <c r="I81" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>45765.30477618056</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0x01,0x46</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F82" t="n">
+        <v>400</v>
+      </c>
+      <c r="G82" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H82" t="n">
+        <v>326</v>
+      </c>
+      <c r="I82" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>45765.80597988426</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0x01,0x46</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F83" t="n">
+        <v>400</v>
+      </c>
+      <c r="G83" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H83" t="n">
+        <v>326</v>
+      </c>
+      <c r="I83" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>45766.30966043982</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0x01,0x46</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F84" t="n">
+        <v>400</v>
+      </c>
+      <c r="G84" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H84" t="n">
+        <v>326</v>
+      </c>
+      <c r="I84" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>45766.81305164352</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0x01,0x42</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F85" t="n">
+        <v>400</v>
+      </c>
+      <c r="G85" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H85" t="n">
+        <v>322</v>
+      </c>
+      <c r="I85" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>45767.31505395834</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0x01,0x42</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F86" t="n">
+        <v>400</v>
+      </c>
+      <c r="G86" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H86" t="n">
+        <v>322</v>
+      </c>
+      <c r="I86" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>45767.81691738426</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0x01,0x42</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F87" t="n">
+        <v>400</v>
+      </c>
+      <c r="G87" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H87" t="n">
+        <v>322</v>
+      </c>
+      <c r="I87" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>45768.317970625</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0x01,0x42</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F88" t="n">
+        <v>400</v>
+      </c>
+      <c r="G88" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H88" t="n">
+        <v>322</v>
+      </c>
+      <c r="I88" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>45768.81944053241</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0x01,0x3e</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F89" t="n">
+        <v>400</v>
+      </c>
+      <c r="G89" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H89" t="n">
+        <v>318</v>
+      </c>
+      <c r="I89" t="n">
         <v>20</v>
       </c>
     </row>
@@ -9522,7 +10652,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I79"/>
+  <dimension ref="A1:I89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12463,6 +13593,376 @@
         <v>25</v>
       </c>
     </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>45764.42437207176</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0x01,0x4e</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F80" t="n">
+        <v>400</v>
+      </c>
+      <c r="G80" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H80" t="n">
+        <v>334</v>
+      </c>
+      <c r="I80" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>45764.92719614584</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0x01,0x4e</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F81" t="n">
+        <v>400</v>
+      </c>
+      <c r="G81" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H81" t="n">
+        <v>334</v>
+      </c>
+      <c r="I81" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>45765.42864290509</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0x01,0x4e</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F82" t="n">
+        <v>400</v>
+      </c>
+      <c r="G82" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H82" t="n">
+        <v>334</v>
+      </c>
+      <c r="I82" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>45765.9316290162</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0x01,0x4e</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F83" t="n">
+        <v>400</v>
+      </c>
+      <c r="G83" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H83" t="n">
+        <v>334</v>
+      </c>
+      <c r="I83" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>45766.4329716088</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0x01,0x4a</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F84" t="n">
+        <v>400</v>
+      </c>
+      <c r="G84" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H84" t="n">
+        <v>330</v>
+      </c>
+      <c r="I84" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>45766.93372392361</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0x01,0x4a</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F85" t="n">
+        <v>400</v>
+      </c>
+      <c r="G85" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H85" t="n">
+        <v>330</v>
+      </c>
+      <c r="I85" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>45767.43618920139</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0x01,0x4a</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F86" t="n">
+        <v>400</v>
+      </c>
+      <c r="G86" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H86" t="n">
+        <v>330</v>
+      </c>
+      <c r="I86" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>45767.93966142361</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0x01,0x4a</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F87" t="n">
+        <v>400</v>
+      </c>
+      <c r="G87" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H87" t="n">
+        <v>330</v>
+      </c>
+      <c r="I87" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>45768.44260123843</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0x01,0x46</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F88" t="n">
+        <v>400</v>
+      </c>
+      <c r="G88" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H88" t="n">
+        <v>326</v>
+      </c>
+      <c r="I88" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>45768.94482346065</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0x01,0x46</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F89" t="n">
+        <v>400</v>
+      </c>
+      <c r="G89" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H89" t="n">
+        <v>326</v>
+      </c>
+      <c r="I89" t="n">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAG2_Database_update.xlsx
+++ b/SAG2_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I89"/>
+  <dimension ref="A1:I90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3740,6 +3740,43 @@
         <v>318</v>
       </c>
       <c r="I89" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>45769.29095546297</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0x01,0x3e</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F90" t="n">
+        <v>400</v>
+      </c>
+      <c r="G90" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H90" t="n">
+        <v>318</v>
+      </c>
+      <c r="I90" t="n">
         <v>14</v>
       </c>
     </row>
@@ -3754,7 +3791,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I91"/>
+  <dimension ref="A1:I92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7316,6 +7353,45 @@
         <v>326</v>
       </c>
       <c r="I91" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>45769.25613425926</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0x01,0x46</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F92" t="n">
+        <v>400</v>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>326</v>
+      </c>
+      <c r="I92" t="n">
         <v>25</v>
       </c>
     </row>
@@ -7330,7 +7406,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I89"/>
+  <dimension ref="A1:I90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10638,6 +10714,43 @@
         <v>318</v>
       </c>
       <c r="I89" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>45769.32291275463</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0x01,0x3e</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F90" t="n">
+        <v>400</v>
+      </c>
+      <c r="G90" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H90" t="n">
+        <v>318</v>
+      </c>
+      <c r="I90" t="n">
         <v>20</v>
       </c>
     </row>
@@ -10652,7 +10765,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I89"/>
+  <dimension ref="A1:I90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13963,6 +14076,43 @@
         <v>25</v>
       </c>
     </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>45769.44618920139</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0x01,0x46</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F90" t="n">
+        <v>400</v>
+      </c>
+      <c r="G90" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H90" t="n">
+        <v>326</v>
+      </c>
+      <c r="I90" t="n">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAG2_Database_update.xlsx
+++ b/SAG2_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I90"/>
+  <dimension ref="A1:I91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3777,6 +3777,43 @@
         <v>318</v>
       </c>
       <c r="I90" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>45769.79423092592</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0x01,0x3e</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F91" t="n">
+        <v>400</v>
+      </c>
+      <c r="G91" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H91" t="n">
+        <v>318</v>
+      </c>
+      <c r="I91" t="n">
         <v>14</v>
       </c>
     </row>
@@ -3791,7 +3828,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I92"/>
+  <dimension ref="A1:I93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7392,6 +7429,45 @@
         <v>326</v>
       </c>
       <c r="I92" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>45769.75862268519</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0x01,0x42</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F93" t="n">
+        <v>400</v>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>322</v>
+      </c>
+      <c r="I93" t="n">
         <v>25</v>
       </c>
     </row>
@@ -7406,7 +7482,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I90"/>
+  <dimension ref="A1:I91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10751,6 +10827,43 @@
         <v>318</v>
       </c>
       <c r="I90" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>45769.82389655092</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0x01,0x3e</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F91" t="n">
+        <v>400</v>
+      </c>
+      <c r="G91" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H91" t="n">
+        <v>318</v>
+      </c>
+      <c r="I91" t="n">
         <v>20</v>
       </c>
     </row>
@@ -10765,7 +10878,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I90"/>
+  <dimension ref="A1:I91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14113,6 +14226,43 @@
         <v>25</v>
       </c>
     </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>45769.94776327546</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0x01,0x46</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F91" t="n">
+        <v>400</v>
+      </c>
+      <c r="G91" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H91" t="n">
+        <v>326</v>
+      </c>
+      <c r="I91" t="n">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAG2_Database_update.xlsx
+++ b/SAG2_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I91"/>
+  <dimension ref="A1:I92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3814,6 +3814,43 @@
         <v>318</v>
       </c>
       <c r="I91" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>45770.29820083333</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0x01,0x3e</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F92" t="n">
+        <v>400</v>
+      </c>
+      <c r="G92" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H92" t="n">
+        <v>318</v>
+      </c>
+      <c r="I92" t="n">
         <v>14</v>
       </c>
     </row>
@@ -3828,7 +3865,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I93"/>
+  <dimension ref="A1:I94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7468,6 +7505,45 @@
         <v>322</v>
       </c>
       <c r="I93" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>45770.2615625</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0x01,0x42</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F94" t="n">
+        <v>400</v>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>322</v>
+      </c>
+      <c r="I94" t="n">
         <v>25</v>
       </c>
     </row>
@@ -7482,7 +7558,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I91"/>
+  <dimension ref="A1:I92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10864,6 +10940,43 @@
         <v>318</v>
       </c>
       <c r="I91" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>45770.32618821759</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0x01,0x3e</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F92" t="n">
+        <v>400</v>
+      </c>
+      <c r="G92" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H92" t="n">
+        <v>318</v>
+      </c>
+      <c r="I92" t="n">
         <v>20</v>
       </c>
     </row>
@@ -10878,7 +10991,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I91"/>
+  <dimension ref="A1:I92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14263,6 +14376,43 @@
         <v>25</v>
       </c>
     </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>45770.45137438658</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0x01,0x46</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F92" t="n">
+        <v>400</v>
+      </c>
+      <c r="G92" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H92" t="n">
+        <v>326</v>
+      </c>
+      <c r="I92" t="n">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAG2_Database_update.xlsx
+++ b/SAG2_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I92"/>
+  <dimension ref="A1:I93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3851,6 +3851,43 @@
         <v>318</v>
       </c>
       <c r="I92" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>45770.80108277778</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0x01,0x3e</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F93" t="n">
+        <v>400</v>
+      </c>
+      <c r="G93" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H93" t="n">
+        <v>318</v>
+      </c>
+      <c r="I93" t="n">
         <v>14</v>
       </c>
     </row>
@@ -3865,7 +3902,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I94"/>
+  <dimension ref="A1:I95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7544,6 +7581,45 @@
         <v>322</v>
       </c>
       <c r="I94" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>45770.76311342593</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0x01,0x42</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F95" t="n">
+        <v>400</v>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>322</v>
+      </c>
+      <c r="I95" t="n">
         <v>25</v>
       </c>
     </row>
@@ -7558,7 +7634,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I92"/>
+  <dimension ref="A1:I93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10977,6 +11053,43 @@
         <v>318</v>
       </c>
       <c r="I92" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>45770.82959099537</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0x01,0x3e</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F93" t="n">
+        <v>400</v>
+      </c>
+      <c r="G93" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H93" t="n">
+        <v>318</v>
+      </c>
+      <c r="I93" t="n">
         <v>20</v>
       </c>
     </row>
@@ -10991,7 +11104,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I92"/>
+  <dimension ref="A1:I93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14413,6 +14526,43 @@
         <v>25</v>
       </c>
     </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>45770.95209197917</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0x01,0x42</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F93" t="n">
+        <v>400</v>
+      </c>
+      <c r="G93" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H93" t="n">
+        <v>322</v>
+      </c>
+      <c r="I93" t="n">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAG2_Database_update.xlsx
+++ b/SAG2_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I93"/>
+  <dimension ref="A1:I94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3888,6 +3888,43 @@
         <v>318</v>
       </c>
       <c r="I93" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>45771.30269157408</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0x01,0x3a</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F94" t="n">
+        <v>400</v>
+      </c>
+      <c r="G94" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H94" t="n">
+        <v>314</v>
+      </c>
+      <c r="I94" t="n">
         <v>14</v>
       </c>
     </row>
@@ -3902,7 +3939,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I95"/>
+  <dimension ref="A1:I96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7620,6 +7657,45 @@
         <v>322</v>
       </c>
       <c r="I95" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>45771.26475694445</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0x01,0x42</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F96" t="n">
+        <v>400</v>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>322</v>
+      </c>
+      <c r="I96" t="n">
         <v>25</v>
       </c>
     </row>
@@ -7634,7 +7710,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I93"/>
+  <dimension ref="A1:I94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11090,6 +11166,43 @@
         <v>318</v>
       </c>
       <c r="I93" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>45771.33282016204</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0x01,0x3a</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F94" t="n">
+        <v>400</v>
+      </c>
+      <c r="G94" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H94" t="n">
+        <v>314</v>
+      </c>
+      <c r="I94" t="n">
         <v>20</v>
       </c>
     </row>
@@ -11104,7 +11217,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I93"/>
+  <dimension ref="A1:I94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14563,6 +14676,43 @@
         <v>25</v>
       </c>
     </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>45771.45514753473</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0x01,0x42</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F94" t="n">
+        <v>400</v>
+      </c>
+      <c r="G94" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H94" t="n">
+        <v>322</v>
+      </c>
+      <c r="I94" t="n">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAG2_Database_update.xlsx
+++ b/SAG2_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I94"/>
+  <dimension ref="A1:I95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3925,6 +3925,43 @@
         <v>314</v>
       </c>
       <c r="I94" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>45771.80362907407</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0x01,0x3a</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F95" t="n">
+        <v>400</v>
+      </c>
+      <c r="G95" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H95" t="n">
+        <v>314</v>
+      </c>
+      <c r="I95" t="n">
         <v>14</v>
       </c>
     </row>
@@ -3939,7 +3976,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I96"/>
+  <dimension ref="A1:I97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7696,6 +7733,45 @@
         <v>322</v>
       </c>
       <c r="I96" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>45771.76709490741</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0x01,0x42</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F97" t="n">
+        <v>400</v>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>322</v>
+      </c>
+      <c r="I97" t="n">
         <v>25</v>
       </c>
     </row>
@@ -7710,7 +7786,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I94"/>
+  <dimension ref="A1:I95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11203,6 +11279,43 @@
         <v>314</v>
       </c>
       <c r="I94" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>45771.83461414352</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0x01,0x3a</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F95" t="n">
+        <v>400</v>
+      </c>
+      <c r="G95" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H95" t="n">
+        <v>314</v>
+      </c>
+      <c r="I95" t="n">
         <v>20</v>
       </c>
     </row>
@@ -11217,7 +11330,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I94"/>
+  <dimension ref="A1:I95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14713,6 +14826,43 @@
         <v>25</v>
       </c>
     </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>45771.95616605324</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0x01,0x42</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F95" t="n">
+        <v>400</v>
+      </c>
+      <c r="G95" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H95" t="n">
+        <v>322</v>
+      </c>
+      <c r="I95" t="n">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAG2_Database_update.xlsx
+++ b/SAG2_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I95"/>
+  <dimension ref="A1:I96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3962,6 +3962,43 @@
         <v>314</v>
       </c>
       <c r="I95" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>45772.30629111111</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0x01,0x3a</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F96" t="n">
+        <v>400</v>
+      </c>
+      <c r="G96" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H96" t="n">
+        <v>314</v>
+      </c>
+      <c r="I96" t="n">
         <v>14</v>
       </c>
     </row>
@@ -3976,7 +4013,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I97"/>
+  <dimension ref="A1:I98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7772,6 +7809,45 @@
         <v>322</v>
       </c>
       <c r="I97" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>45772.27034722222</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0x01,0x3e</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F98" t="n">
+        <v>400</v>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>318</v>
+      </c>
+      <c r="I98" t="n">
         <v>25</v>
       </c>
     </row>
@@ -7786,7 +7862,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I95"/>
+  <dimension ref="A1:I96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11316,6 +11392,43 @@
         <v>314</v>
       </c>
       <c r="I95" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>45772.33809793981</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0x01,0x3a</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F96" t="n">
+        <v>400</v>
+      </c>
+      <c r="G96" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H96" t="n">
+        <v>314</v>
+      </c>
+      <c r="I96" t="n">
         <v>20</v>
       </c>
     </row>
@@ -11330,7 +11443,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I95"/>
+  <dimension ref="A1:I96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14863,6 +14976,43 @@
         <v>25</v>
       </c>
     </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>45772.4573003125</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0x01,0x42</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F96" t="n">
+        <v>400</v>
+      </c>
+      <c r="G96" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H96" t="n">
+        <v>322</v>
+      </c>
+      <c r="I96" t="n">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAG2_Database_update.xlsx
+++ b/SAG2_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I96"/>
+  <dimension ref="A1:I97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3999,6 +3999,43 @@
         <v>314</v>
       </c>
       <c r="I96" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>45772.8092425</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0x01,0x3a</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F97" t="n">
+        <v>400</v>
+      </c>
+      <c r="G97" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H97" t="n">
+        <v>314</v>
+      </c>
+      <c r="I97" t="n">
         <v>14</v>
       </c>
     </row>
@@ -4013,7 +4050,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I98"/>
+  <dimension ref="A1:I99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7848,6 +7885,45 @@
         <v>318</v>
       </c>
       <c r="I98" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>45772.77182870371</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0x01,0x3e</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F99" t="n">
+        <v>400</v>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>318</v>
+      </c>
+      <c r="I99" t="n">
         <v>25</v>
       </c>
     </row>
@@ -7862,7 +7938,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I96"/>
+  <dimension ref="A1:I97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11429,6 +11505,43 @@
         <v>314</v>
       </c>
       <c r="I96" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>45772.84066738426</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0x01,0x3a</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F97" t="n">
+        <v>400</v>
+      </c>
+      <c r="G97" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H97" t="n">
+        <v>314</v>
+      </c>
+      <c r="I97" t="n">
         <v>20</v>
       </c>
     </row>
@@ -11443,7 +11556,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I96"/>
+  <dimension ref="A1:I97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15013,6 +15126,43 @@
         <v>25</v>
       </c>
     </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>45772.95915216435</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0x01,0x42</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F97" t="n">
+        <v>400</v>
+      </c>
+      <c r="G97" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H97" t="n">
+        <v>322</v>
+      </c>
+      <c r="I97" t="n">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAG2_Database_update.xlsx
+++ b/SAG2_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I97"/>
+  <dimension ref="A1:I98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4036,6 +4036,43 @@
         <v>314</v>
       </c>
       <c r="I97" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>45773.3124137963</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0x01,0x3a</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F98" t="n">
+        <v>400</v>
+      </c>
+      <c r="G98" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H98" t="n">
+        <v>314</v>
+      </c>
+      <c r="I98" t="n">
         <v>14</v>
       </c>
     </row>
@@ -4050,7 +4087,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I99"/>
+  <dimension ref="A1:I100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7924,6 +7961,45 @@
         <v>318</v>
       </c>
       <c r="I99" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>45773.27555555556</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0x01,0x3e</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F100" t="n">
+        <v>400</v>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>318</v>
+      </c>
+      <c r="I100" t="n">
         <v>25</v>
       </c>
     </row>
@@ -7938,7 +8014,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I97"/>
+  <dimension ref="A1:I98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11542,6 +11618,43 @@
         <v>314</v>
       </c>
       <c r="I97" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>45773.34379238426</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0x01,0x3a</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F98" t="n">
+        <v>400</v>
+      </c>
+      <c r="G98" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H98" t="n">
+        <v>314</v>
+      </c>
+      <c r="I98" t="n">
         <v>20</v>
       </c>
     </row>
@@ -11556,7 +11669,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I97"/>
+  <dimension ref="A1:I98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15163,6 +15276,43 @@
         <v>25</v>
       </c>
     </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>45773.46272855324</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0x01,0x3e</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F98" t="n">
+        <v>400</v>
+      </c>
+      <c r="G98" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H98" t="n">
+        <v>318</v>
+      </c>
+      <c r="I98" t="n">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAG2_Database_update.xlsx
+++ b/SAG2_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I98"/>
+  <dimension ref="A1:I99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4073,6 +4073,43 @@
         <v>314</v>
       </c>
       <c r="I98" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>45773.81649944445</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0x01,0x36</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F99" t="n">
+        <v>400</v>
+      </c>
+      <c r="G99" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H99" t="n">
+        <v>310</v>
+      </c>
+      <c r="I99" t="n">
         <v>14</v>
       </c>
     </row>
@@ -4087,7 +4124,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I100"/>
+  <dimension ref="A1:I101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8000,6 +8037,45 @@
         <v>318</v>
       </c>
       <c r="I100" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>45773.7771875</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0x01,0x3a</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F101" t="n">
+        <v>400</v>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>314</v>
+      </c>
+      <c r="I101" t="n">
         <v>25</v>
       </c>
     </row>
@@ -8014,7 +8090,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I98"/>
+  <dimension ref="A1:I99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11655,6 +11731,43 @@
         <v>314</v>
       </c>
       <c r="I98" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>45773.84613034722</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0x01,0x36</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F99" t="n">
+        <v>400</v>
+      </c>
+      <c r="G99" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H99" t="n">
+        <v>310</v>
+      </c>
+      <c r="I99" t="n">
         <v>20</v>
       </c>
     </row>
@@ -11669,7 +11782,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I98"/>
+  <dimension ref="A1:I99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15313,6 +15426,43 @@
         <v>25</v>
       </c>
     </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>45773.96371234953</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0x01,0x3e</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F99" t="n">
+        <v>400</v>
+      </c>
+      <c r="G99" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H99" t="n">
+        <v>318</v>
+      </c>
+      <c r="I99" t="n">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAG2_Database_update.xlsx
+++ b/SAG2_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I99"/>
+  <dimension ref="A1:I100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4110,6 +4110,43 @@
         <v>310</v>
       </c>
       <c r="I99" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>45774.32023787037</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0x01,0x36</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F100" t="n">
+        <v>400</v>
+      </c>
+      <c r="G100" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H100" t="n">
+        <v>310</v>
+      </c>
+      <c r="I100" t="n">
         <v>14</v>
       </c>
     </row>
@@ -4124,7 +4161,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I101"/>
+  <dimension ref="A1:I102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8076,6 +8113,45 @@
         <v>314</v>
       </c>
       <c r="I101" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>45774.27935185185</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0x01,0x3a</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F102" t="n">
+        <v>400</v>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>314</v>
+      </c>
+      <c r="I102" t="n">
         <v>25</v>
       </c>
     </row>
@@ -8090,7 +8166,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I99"/>
+  <dimension ref="A1:I100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11768,6 +11844,43 @@
         <v>310</v>
       </c>
       <c r="I99" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>45774.34869979167</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0x01,0x36</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F100" t="n">
+        <v>400</v>
+      </c>
+      <c r="G100" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H100" t="n">
+        <v>310</v>
+      </c>
+      <c r="I100" t="n">
         <v>20</v>
       </c>
     </row>
@@ -11782,7 +11895,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I99"/>
+  <dimension ref="A1:I100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15463,6 +15576,43 @@
         <v>25</v>
       </c>
     </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>45774.46454568287</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0x01,0x3e</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F100" t="n">
+        <v>400</v>
+      </c>
+      <c r="G100" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H100" t="n">
+        <v>318</v>
+      </c>
+      <c r="I100" t="n">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAG2_Database_update.xlsx
+++ b/SAG2_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I100"/>
+  <dimension ref="A1:I101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4147,6 +4147,43 @@
         <v>310</v>
       </c>
       <c r="I100" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>45774.82130268519</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0x01,0x36</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F101" t="n">
+        <v>400</v>
+      </c>
+      <c r="G101" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H101" t="n">
+        <v>310</v>
+      </c>
+      <c r="I101" t="n">
         <v>14</v>
       </c>
     </row>
@@ -4161,7 +4198,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I102"/>
+  <dimension ref="A1:I103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8152,6 +8189,45 @@
         <v>314</v>
       </c>
       <c r="I102" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>45774.78094907408</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0x01,0x3a</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F103" t="n">
+        <v>400</v>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>314</v>
+      </c>
+      <c r="I103" t="n">
         <v>25</v>
       </c>
     </row>
@@ -8166,7 +8242,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I100"/>
+  <dimension ref="A1:I101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11881,6 +11957,43 @@
         <v>310</v>
       </c>
       <c r="I100" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>45774.85271599537</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0x01,0x36</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F101" t="n">
+        <v>400</v>
+      </c>
+      <c r="G101" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H101" t="n">
+        <v>310</v>
+      </c>
+      <c r="I101" t="n">
         <v>20</v>
       </c>
     </row>
@@ -11895,7 +12008,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I100"/>
+  <dimension ref="A1:I101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15613,6 +15726,43 @@
         <v>25</v>
       </c>
     </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>45774.96746234954</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0x01,0x3a</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F101" t="n">
+        <v>400</v>
+      </c>
+      <c r="G101" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H101" t="n">
+        <v>314</v>
+      </c>
+      <c r="I101" t="n">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAG2_Database_update.xlsx
+++ b/SAG2_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I101"/>
+  <dimension ref="A1:I102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4184,6 +4184,43 @@
         <v>310</v>
       </c>
       <c r="I101" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>45775.32265685185</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0x01,0x32</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F102" t="n">
+        <v>400</v>
+      </c>
+      <c r="G102" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H102" t="n">
+        <v>306</v>
+      </c>
+      <c r="I102" t="n">
         <v>14</v>
       </c>
     </row>
@@ -4198,7 +4235,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I103"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8228,6 +8265,45 @@
         <v>314</v>
       </c>
       <c r="I103" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>45775.28225694445</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0x01,0x36</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F104" t="n">
+        <v>400</v>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>310</v>
+      </c>
+      <c r="I104" t="n">
         <v>25</v>
       </c>
     </row>
@@ -8242,7 +8318,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I101"/>
+  <dimension ref="A1:I102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11994,6 +12070,43 @@
         <v>310</v>
       </c>
       <c r="I101" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>45775.35668590278</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0x01,0x32</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F102" t="n">
+        <v>400</v>
+      </c>
+      <c r="G102" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H102" t="n">
+        <v>306</v>
+      </c>
+      <c r="I102" t="n">
         <v>20</v>
       </c>
     </row>
@@ -12008,7 +12121,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I101"/>
+  <dimension ref="A1:I102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15763,6 +15876,43 @@
         <v>25</v>
       </c>
     </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>45775.47071466435</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0x01,0x3a</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F102" t="n">
+        <v>400</v>
+      </c>
+      <c r="G102" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H102" t="n">
+        <v>314</v>
+      </c>
+      <c r="I102" t="n">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAG2_Database_update.xlsx
+++ b/SAG2_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I102"/>
+  <dimension ref="A1:I103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4221,6 +4221,43 @@
         <v>306</v>
       </c>
       <c r="I102" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>45775.82605962963</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0x01,0x32</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F103" t="n">
+        <v>400</v>
+      </c>
+      <c r="G103" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H103" t="n">
+        <v>306</v>
+      </c>
+      <c r="I103" t="n">
         <v>14</v>
       </c>
     </row>
@@ -4235,7 +4272,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I104"/>
+  <dimension ref="A1:I105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8304,6 +8341,45 @@
         <v>310</v>
       </c>
       <c r="I104" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>45775.78578703704</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0x01,0x36</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F105" t="n">
+        <v>400</v>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>310</v>
+      </c>
+      <c r="I105" t="n">
         <v>25</v>
       </c>
     </row>
@@ -8318,7 +8394,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I102"/>
+  <dimension ref="A1:I103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12107,6 +12183,43 @@
         <v>306</v>
       </c>
       <c r="I102" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>45775.86014655093</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0x01,0x32</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F103" t="n">
+        <v>400</v>
+      </c>
+      <c r="G103" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H103" t="n">
+        <v>306</v>
+      </c>
+      <c r="I103" t="n">
         <v>20</v>
       </c>
     </row>
@@ -12121,7 +12234,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I102"/>
+  <dimension ref="A1:I103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15913,6 +16026,43 @@
         <v>25</v>
       </c>
     </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>45775.97393225694</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0x01,0x3a</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F103" t="n">
+        <v>400</v>
+      </c>
+      <c r="G103" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H103" t="n">
+        <v>314</v>
+      </c>
+      <c r="I103" t="n">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAG2_Database_update.xlsx
+++ b/SAG2_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I103"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4258,6 +4258,43 @@
         <v>306</v>
       </c>
       <c r="I103" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>45776.32806194444</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0x01,0x32</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F104" t="n">
+        <v>400</v>
+      </c>
+      <c r="G104" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H104" t="n">
+        <v>306</v>
+      </c>
+      <c r="I104" t="n">
         <v>14</v>
       </c>
     </row>
@@ -4272,7 +4309,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I105"/>
+  <dimension ref="A1:I106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8380,6 +8417,45 @@
         <v>310</v>
       </c>
       <c r="I105" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>45776.28658564815</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0x01,0x36</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F106" t="n">
+        <v>400</v>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>310</v>
+      </c>
+      <c r="I106" t="n">
         <v>25</v>
       </c>
     </row>
@@ -8394,7 +8470,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I103"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12220,6 +12296,43 @@
         <v>306</v>
       </c>
       <c r="I103" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>45776.36360719908</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0x01,0x32</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F104" t="n">
+        <v>400</v>
+      </c>
+      <c r="G104" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H104" t="n">
+        <v>306</v>
+      </c>
+      <c r="I104" t="n">
         <v>20</v>
       </c>
     </row>
@@ -12234,7 +12347,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I103"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16063,6 +16176,43 @@
         <v>25</v>
       </c>
     </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>45776.4763165162</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0x01,0x36</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F104" t="n">
+        <v>400</v>
+      </c>
+      <c r="G104" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H104" t="n">
+        <v>310</v>
+      </c>
+      <c r="I104" t="n">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAG2_Database_update.xlsx
+++ b/SAG2_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I104"/>
+  <dimension ref="A1:I105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4295,6 +4295,43 @@
         <v>306</v>
       </c>
       <c r="I104" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>45776.83035361111</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0x01,0x2e</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F105" t="n">
+        <v>400</v>
+      </c>
+      <c r="G105" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H105" t="n">
+        <v>302</v>
+      </c>
+      <c r="I105" t="n">
         <v>14</v>
       </c>
     </row>
@@ -4309,7 +4346,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I106"/>
+  <dimension ref="A1:I107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8456,6 +8493,45 @@
         <v>310</v>
       </c>
       <c r="I106" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>45776.78864583333</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0x01,0x32</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F107" t="n">
+        <v>400</v>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>306</v>
+      </c>
+      <c r="I107" t="n">
         <v>25</v>
       </c>
     </row>
@@ -8470,7 +8546,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I104"/>
+  <dimension ref="A1:I105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12333,6 +12409,43 @@
         <v>306</v>
       </c>
       <c r="I104" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>45776.86585256944</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0x01,0x2e</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F105" t="n">
+        <v>400</v>
+      </c>
+      <c r="G105" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H105" t="n">
+        <v>302</v>
+      </c>
+      <c r="I105" t="n">
         <v>20</v>
       </c>
     </row>
@@ -12347,7 +12460,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I104"/>
+  <dimension ref="A1:I105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16213,6 +16326,43 @@
         <v>25</v>
       </c>
     </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>45776.97723086805</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0x01,0x36</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F105" t="n">
+        <v>400</v>
+      </c>
+      <c r="G105" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H105" t="n">
+        <v>310</v>
+      </c>
+      <c r="I105" t="n">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAG2_Database_update.xlsx
+++ b/SAG2_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I105"/>
+  <dimension ref="A1:I106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4332,6 +4332,43 @@
         <v>302</v>
       </c>
       <c r="I105" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>45777.33256425926</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0x01,0x2e</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F106" t="n">
+        <v>400</v>
+      </c>
+      <c r="G106" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H106" t="n">
+        <v>302</v>
+      </c>
+      <c r="I106" t="n">
         <v>14</v>
       </c>
     </row>
@@ -4346,7 +4383,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I107"/>
+  <dimension ref="A1:I108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8532,6 +8569,45 @@
         <v>306</v>
       </c>
       <c r="I107" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>45777.28993055555</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0x01,0x32</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F108" t="n">
+        <v>400</v>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>306</v>
+      </c>
+      <c r="I108" t="n">
         <v>25</v>
       </c>
     </row>
@@ -8546,7 +8622,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I105"/>
+  <dimension ref="A1:I106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12446,6 +12522,43 @@
         <v>302</v>
       </c>
       <c r="I105" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>45777.36998451389</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0x01,0x2e</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F106" t="n">
+        <v>400</v>
+      </c>
+      <c r="G106" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H106" t="n">
+        <v>302</v>
+      </c>
+      <c r="I106" t="n">
         <v>20</v>
       </c>
     </row>
@@ -12460,7 +12573,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I105"/>
+  <dimension ref="A1:I106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16363,6 +16476,43 @@
         <v>25</v>
       </c>
     </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>45777.47951096065</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0x01,0x36</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F106" t="n">
+        <v>400</v>
+      </c>
+      <c r="G106" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H106" t="n">
+        <v>310</v>
+      </c>
+      <c r="I106" t="n">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAG2_Database_update.xlsx
+++ b/SAG2_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I106"/>
+  <dimension ref="A1:I121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4369,6 +4369,561 @@
         <v>302</v>
       </c>
       <c r="I106" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>45777.83590916666</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0x01,0x2e</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F107" t="n">
+        <v>400</v>
+      </c>
+      <c r="G107" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H107" t="n">
+        <v>302</v>
+      </c>
+      <c r="I107" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>45778.33662675926</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0x01,0x2a</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F108" t="n">
+        <v>400</v>
+      </c>
+      <c r="G108" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H108" t="n">
+        <v>298</v>
+      </c>
+      <c r="I108" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>45778.84018</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0x01,0x2a</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F109" t="n">
+        <v>400</v>
+      </c>
+      <c r="G109" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H109" t="n">
+        <v>298</v>
+      </c>
+      <c r="I109" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>45779.34427722222</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0x01,0x2a</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F110" t="n">
+        <v>400</v>
+      </c>
+      <c r="G110" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H110" t="n">
+        <v>298</v>
+      </c>
+      <c r="I110" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>45779.84636055556</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0x01,0x2a</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F111" t="n">
+        <v>400</v>
+      </c>
+      <c r="G111" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H111" t="n">
+        <v>298</v>
+      </c>
+      <c r="I111" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>45780.34913833333</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0x01,0x26</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F112" t="n">
+        <v>400</v>
+      </c>
+      <c r="G112" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H112" t="n">
+        <v>294</v>
+      </c>
+      <c r="I112" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>45780.85220546296</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0x01,0x26</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F113" t="n">
+        <v>400</v>
+      </c>
+      <c r="G113" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H113" t="n">
+        <v>294</v>
+      </c>
+      <c r="I113" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>45781.35599018518</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0x01,0x26</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F114" t="n">
+        <v>400</v>
+      </c>
+      <c r="G114" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H114" t="n">
+        <v>294</v>
+      </c>
+      <c r="I114" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>45781.85893</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0x01,0x26</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F115" t="n">
+        <v>400</v>
+      </c>
+      <c r="G115" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H115" t="n">
+        <v>294</v>
+      </c>
+      <c r="I115" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>45782.36204342593</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0x01,0x26</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F116" t="n">
+        <v>400</v>
+      </c>
+      <c r="G116" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H116" t="n">
+        <v>294</v>
+      </c>
+      <c r="I116" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>45782.86492537037</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0x01,0x22</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F117" t="n">
+        <v>400</v>
+      </c>
+      <c r="G117" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H117" t="n">
+        <v>290</v>
+      </c>
+      <c r="I117" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>45783.3688837037</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0x01,0x22</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F118" t="n">
+        <v>400</v>
+      </c>
+      <c r="G118" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H118" t="n">
+        <v>290</v>
+      </c>
+      <c r="I118" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>45783.8708512963</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0x01,0x22</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F119" t="n">
+        <v>400</v>
+      </c>
+      <c r="G119" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H119" t="n">
+        <v>290</v>
+      </c>
+      <c r="I119" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>45784.37302722222</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0x01,0x1e</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F120" t="n">
+        <v>400</v>
+      </c>
+      <c r="G120" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H120" t="n">
+        <v>286</v>
+      </c>
+      <c r="I120" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>45784.87480962963</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0x01,0x1e</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F121" t="n">
+        <v>400</v>
+      </c>
+      <c r="G121" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H121" t="n">
+        <v>286</v>
+      </c>
+      <c r="I121" t="n">
         <v>14</v>
       </c>
     </row>
@@ -4383,7 +4938,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I108"/>
+  <dimension ref="A1:I124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8608,6 +9163,630 @@
         <v>306</v>
       </c>
       <c r="I108" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>45777.79174768519</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0x01,0x32</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F109" t="n">
+        <v>400</v>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>306</v>
+      </c>
+      <c r="I109" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>45778.29453703704</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0x01,0x32</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F110" t="n">
+        <v>400</v>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>306</v>
+      </c>
+      <c r="I110" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>45778.79526620371</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0x01,0x2e</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F111" t="n">
+        <v>400</v>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>302</v>
+      </c>
+      <c r="I111" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>45779.29738425926</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0x01,0x2e</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F112" t="n">
+        <v>400</v>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>302</v>
+      </c>
+      <c r="I112" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>45779.80127314815</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0x01,0x2e</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F113" t="n">
+        <v>400</v>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>302</v>
+      </c>
+      <c r="I113" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>45780.30501157408</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0x01,0x2e</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F114" t="n">
+        <v>400</v>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>302</v>
+      </c>
+      <c r="I114" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>45780.80866898148</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0x01,0x2e</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F115" t="n">
+        <v>400</v>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>302</v>
+      </c>
+      <c r="I115" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>45781.3122337963</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0x01,0x2a</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F116" t="n">
+        <v>400</v>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>298</v>
+      </c>
+      <c r="I116" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>45781.81559027778</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0x01,0x2a</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F117" t="n">
+        <v>400</v>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>298</v>
+      </c>
+      <c r="I117" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>45782.31641203703</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0x01,0x2a</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F118" t="n">
+        <v>400</v>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>298</v>
+      </c>
+      <c r="I118" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>45782.8194212963</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0x01,0x2a</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F119" t="n">
+        <v>400</v>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>298</v>
+      </c>
+      <c r="I119" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>45783.32262731482</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0x01,0x26</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F120" t="n">
+        <v>400</v>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>294</v>
+      </c>
+      <c r="I120" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>45783.8240162037</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0x01,0x26</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F121" t="n">
+        <v>400</v>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>294</v>
+      </c>
+      <c r="I121" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>45784.32689814815</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0x01,0x26</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F122" t="n">
+        <v>400</v>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>294</v>
+      </c>
+      <c r="I122" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>45784.82771990741</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0x01,0x26</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F123" t="n">
+        <v>400</v>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>294</v>
+      </c>
+      <c r="I123" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>45785.33096064815</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0x01,0x22</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F124" t="n">
+        <v>400</v>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>290</v>
+      </c>
+      <c r="I124" t="n">
         <v>25</v>
       </c>
     </row>
@@ -8622,7 +9801,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I106"/>
+  <dimension ref="A1:I121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12559,6 +13738,561 @@
         <v>302</v>
       </c>
       <c r="I106" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>45777.870783125</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0x01,0x2e</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F107" t="n">
+        <v>400</v>
+      </c>
+      <c r="G107" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H107" t="n">
+        <v>302</v>
+      </c>
+      <c r="I107" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>45778.373595625</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0x01,0x2a</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F108" t="n">
+        <v>400</v>
+      </c>
+      <c r="G108" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H108" t="n">
+        <v>298</v>
+      </c>
+      <c r="I108" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>45778.87594516204</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0x01,0x2a</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F109" t="n">
+        <v>400</v>
+      </c>
+      <c r="G109" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H109" t="n">
+        <v>298</v>
+      </c>
+      <c r="I109" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>45779.37821368055</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0x01,0x2a</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F110" t="n">
+        <v>400</v>
+      </c>
+      <c r="G110" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H110" t="n">
+        <v>298</v>
+      </c>
+      <c r="I110" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>45779.88094516204</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0x01,0x2a</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F111" t="n">
+        <v>400</v>
+      </c>
+      <c r="G111" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H111" t="n">
+        <v>298</v>
+      </c>
+      <c r="I111" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>45780.38499608796</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0x01,0x26</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F112" t="n">
+        <v>400</v>
+      </c>
+      <c r="G112" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H112" t="n">
+        <v>294</v>
+      </c>
+      <c r="I112" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>45780.885783125</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0x01,0x26</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F113" t="n">
+        <v>400</v>
+      </c>
+      <c r="G113" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H113" t="n">
+        <v>294</v>
+      </c>
+      <c r="I113" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>45781.38688266204</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0x01,0x26</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F114" t="n">
+        <v>400</v>
+      </c>
+      <c r="G114" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H114" t="n">
+        <v>294</v>
+      </c>
+      <c r="I114" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>45781.88839886574</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0x01,0x26</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F115" t="n">
+        <v>400</v>
+      </c>
+      <c r="G115" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H115" t="n">
+        <v>294</v>
+      </c>
+      <c r="I115" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>45782.38974145833</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0x01,0x26</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F116" t="n">
+        <v>400</v>
+      </c>
+      <c r="G116" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H116" t="n">
+        <v>294</v>
+      </c>
+      <c r="I116" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>45782.89189423611</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0x01,0x22</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F117" t="n">
+        <v>400</v>
+      </c>
+      <c r="G117" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H117" t="n">
+        <v>290</v>
+      </c>
+      <c r="I117" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>45783.39482247685</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0x01,0x22</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F118" t="n">
+        <v>400</v>
+      </c>
+      <c r="G118" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H118" t="n">
+        <v>290</v>
+      </c>
+      <c r="I118" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>45783.89630395833</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0x01,0x22</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F119" t="n">
+        <v>400</v>
+      </c>
+      <c r="G119" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H119" t="n">
+        <v>290</v>
+      </c>
+      <c r="I119" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>45784.39841043981</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0x01,0x1e</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F120" t="n">
+        <v>400</v>
+      </c>
+      <c r="G120" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H120" t="n">
+        <v>286</v>
+      </c>
+      <c r="I120" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>45784.89969516204</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0x01,0x1e</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F121" t="n">
+        <v>400</v>
+      </c>
+      <c r="G121" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H121" t="n">
+        <v>286</v>
+      </c>
+      <c r="I121" t="n">
         <v>20</v>
       </c>
     </row>
@@ -12573,7 +14307,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I106"/>
+  <dimension ref="A1:I121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16513,6 +18247,561 @@
         <v>25</v>
       </c>
     </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>45777.98240447917</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0x01,0x32</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F107" t="n">
+        <v>400</v>
+      </c>
+      <c r="G107" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H107" t="n">
+        <v>306</v>
+      </c>
+      <c r="I107" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>45778.48445309028</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0x01,0x32</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F108" t="n">
+        <v>400</v>
+      </c>
+      <c r="G108" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H108" t="n">
+        <v>306</v>
+      </c>
+      <c r="I108" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>45778.98532114583</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0x01,0x32</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F109" t="n">
+        <v>400</v>
+      </c>
+      <c r="G109" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H109" t="n">
+        <v>306</v>
+      </c>
+      <c r="I109" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>45779.48921003472</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0x01,0x32</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F110" t="n">
+        <v>400</v>
+      </c>
+      <c r="G110" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H110" t="n">
+        <v>306</v>
+      </c>
+      <c r="I110" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>45779.99315679398</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0x01,0x2e</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F111" t="n">
+        <v>400</v>
+      </c>
+      <c r="G111" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H111" t="n">
+        <v>302</v>
+      </c>
+      <c r="I111" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>45780.49423318287</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0x01,0x2e</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F112" t="n">
+        <v>400</v>
+      </c>
+      <c r="G112" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H112" t="n">
+        <v>302</v>
+      </c>
+      <c r="I112" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>45780.99576096065</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0x01,0x2e</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F113" t="n">
+        <v>400</v>
+      </c>
+      <c r="G113" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H113" t="n">
+        <v>302</v>
+      </c>
+      <c r="I113" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>45781.49811049768</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0x01,0x2e</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F114" t="n">
+        <v>400</v>
+      </c>
+      <c r="G114" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H114" t="n">
+        <v>302</v>
+      </c>
+      <c r="I114" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>45782.00034429399</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0x01,0x2e</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F115" t="n">
+        <v>400</v>
+      </c>
+      <c r="G115" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H115" t="n">
+        <v>302</v>
+      </c>
+      <c r="I115" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>45782.50393225694</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0x01,0x2a</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F116" t="n">
+        <v>400</v>
+      </c>
+      <c r="G116" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H116" t="n">
+        <v>298</v>
+      </c>
+      <c r="I116" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>45783.00572623843</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0x01,0x2a</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F117" t="n">
+        <v>400</v>
+      </c>
+      <c r="G117" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H117" t="n">
+        <v>298</v>
+      </c>
+      <c r="I117" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>45783.50696466435</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0x01,0x2a</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F118" t="n">
+        <v>400</v>
+      </c>
+      <c r="G118" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H118" t="n">
+        <v>298</v>
+      </c>
+      <c r="I118" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>45784.00933734954</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0x01,0x2a</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F119" t="n">
+        <v>400</v>
+      </c>
+      <c r="G119" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H119" t="n">
+        <v>298</v>
+      </c>
+      <c r="I119" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>45784.51336512731</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0x01,0x26</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F120" t="n">
+        <v>400</v>
+      </c>
+      <c r="G120" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H120" t="n">
+        <v>294</v>
+      </c>
+      <c r="I120" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>45785.01461512731</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0x01,0x26</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F121" t="n">
+        <v>400</v>
+      </c>
+      <c r="G121" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H121" t="n">
+        <v>294</v>
+      </c>
+      <c r="I121" t="n">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAG2_Database_update.xlsx
+++ b/SAG2_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I121"/>
+  <dimension ref="A1:I122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4924,6 +4924,43 @@
         <v>286</v>
       </c>
       <c r="I121" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>45785.37761055556</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0x01,0x1e</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F122" t="n">
+        <v>400</v>
+      </c>
+      <c r="G122" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H122" t="n">
+        <v>286</v>
+      </c>
+      <c r="I122" t="n">
         <v>14</v>
       </c>
     </row>
@@ -4938,7 +4975,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I124"/>
+  <dimension ref="A1:I125"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9787,6 +9824,45 @@
         <v>290</v>
       </c>
       <c r="I124" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>45785.83275462963</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0x01,0x22</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F125" t="n">
+        <v>400</v>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>290</v>
+      </c>
+      <c r="I125" t="n">
         <v>25</v>
       </c>
     </row>
@@ -9801,7 +9877,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I121"/>
+  <dimension ref="A1:I122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14293,6 +14369,43 @@
         <v>286</v>
       </c>
       <c r="I121" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>45785.40330627315</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0x01,0x1e</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F122" t="n">
+        <v>400</v>
+      </c>
+      <c r="G122" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H122" t="n">
+        <v>286</v>
+      </c>
+      <c r="I122" t="n">
         <v>20</v>
       </c>
     </row>
@@ -14307,7 +14420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I121"/>
+  <dimension ref="A1:I122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18802,6 +18915,43 @@
         <v>25</v>
       </c>
     </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>45785.51709197916</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0x01,0x26</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F122" t="n">
+        <v>400</v>
+      </c>
+      <c r="G122" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H122" t="n">
+        <v>294</v>
+      </c>
+      <c r="I122" t="n">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAG2_Database_update.xlsx
+++ b/SAG2_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I122"/>
+  <dimension ref="A1:I123"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4961,6 +4961,43 @@
         <v>286</v>
       </c>
       <c r="I122" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>45785.88021472222</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0x01,0x1a</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F123" t="n">
+        <v>400</v>
+      </c>
+      <c r="G123" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H123" t="n">
+        <v>282</v>
+      </c>
+      <c r="I123" t="n">
         <v>14</v>
       </c>
     </row>
@@ -9877,7 +9914,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I122"/>
+  <dimension ref="A1:I123"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14406,6 +14443,43 @@
         <v>286</v>
       </c>
       <c r="I122" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>45785.90409331019</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0x01,0x1a</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F123" t="n">
+        <v>400</v>
+      </c>
+      <c r="G123" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H123" t="n">
+        <v>282</v>
+      </c>
+      <c r="I123" t="n">
         <v>20</v>
       </c>
     </row>
@@ -14420,7 +14494,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I122"/>
+  <dimension ref="A1:I123"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18952,6 +19026,43 @@
         <v>25</v>
       </c>
     </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>45786.02110818287</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0x01,0x26</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F123" t="n">
+        <v>400</v>
+      </c>
+      <c r="G123" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H123" t="n">
+        <v>294</v>
+      </c>
+      <c r="I123" t="n">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAG2_Database_update.xlsx
+++ b/SAG2_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I123"/>
+  <dimension ref="A1:I124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4998,6 +4998,43 @@
         <v>282</v>
       </c>
       <c r="I123" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>45786.38189296296</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0x01,0x1a</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F124" t="n">
+        <v>400</v>
+      </c>
+      <c r="G124" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H124" t="n">
+        <v>282</v>
+      </c>
+      <c r="I124" t="n">
         <v>14</v>
       </c>
     </row>
@@ -5012,7 +5049,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I125"/>
+  <dimension ref="A1:I126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9900,6 +9937,45 @@
         <v>290</v>
       </c>
       <c r="I125" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>45786.33373842593</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0x01,0x22</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F126" t="n">
+        <v>400</v>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>290</v>
+      </c>
+      <c r="I126" t="n">
         <v>25</v>
       </c>
     </row>
@@ -9914,7 +9990,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I123"/>
+  <dimension ref="A1:I124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14480,6 +14556,43 @@
         <v>282</v>
       </c>
       <c r="I123" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>45786.40666275463</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0x01,0x1a</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F124" t="n">
+        <v>400</v>
+      </c>
+      <c r="G124" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H124" t="n">
+        <v>282</v>
+      </c>
+      <c r="I124" t="n">
         <v>20</v>
       </c>
     </row>
@@ -14494,7 +14607,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I123"/>
+  <dimension ref="A1:I124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19063,6 +19176,43 @@
         <v>25</v>
       </c>
     </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>45786.52235818287</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0x01,0x22</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F124" t="n">
+        <v>400</v>
+      </c>
+      <c r="G124" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H124" t="n">
+        <v>290</v>
+      </c>
+      <c r="I124" t="n">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAG2_Database_update.xlsx
+++ b/SAG2_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I124"/>
+  <dimension ref="A1:I125"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5035,6 +5035,43 @@
         <v>282</v>
       </c>
       <c r="I124" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>45786.8836637963</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0x01,0x1a</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F125" t="n">
+        <v>400</v>
+      </c>
+      <c r="G125" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H125" t="n">
+        <v>282</v>
+      </c>
+      <c r="I125" t="n">
         <v>14</v>
       </c>
     </row>
@@ -5049,7 +5086,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I126"/>
+  <dimension ref="A1:I127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9976,6 +10013,45 @@
         <v>290</v>
       </c>
       <c r="I126" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>45786.83688657408</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0x01,0x22</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F127" t="n">
+        <v>400</v>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>290</v>
+      </c>
+      <c r="I127" t="n">
         <v>25</v>
       </c>
     </row>
@@ -9990,7 +10066,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I124"/>
+  <dimension ref="A1:I125"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14593,6 +14669,43 @@
         <v>282</v>
       </c>
       <c r="I124" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>45786.90990349537</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0x01,0x1a</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F125" t="n">
+        <v>400</v>
+      </c>
+      <c r="G125" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H125" t="n">
+        <v>282</v>
+      </c>
+      <c r="I125" t="n">
         <v>20</v>
       </c>
     </row>
@@ -14607,7 +14720,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I124"/>
+  <dimension ref="A1:I125"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19213,6 +19326,43 @@
         <v>25</v>
       </c>
     </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>45787.02378179399</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0x01,0x22</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F125" t="n">
+        <v>400</v>
+      </c>
+      <c r="G125" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H125" t="n">
+        <v>290</v>
+      </c>
+      <c r="I125" t="n">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAG2_Database_update.xlsx
+++ b/SAG2_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I125"/>
+  <dimension ref="A1:I126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5072,6 +5072,43 @@
         <v>282</v>
       </c>
       <c r="I125" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>45787.38728648148</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0x01,0x1a</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F126" t="n">
+        <v>400</v>
+      </c>
+      <c r="G126" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H126" t="n">
+        <v>282</v>
+      </c>
+      <c r="I126" t="n">
         <v>14</v>
       </c>
     </row>
@@ -5086,7 +5123,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I127"/>
+  <dimension ref="A1:I128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10052,6 +10089,45 @@
         <v>290</v>
       </c>
       <c r="I127" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>45787.33799768519</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0x01,0x1e</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F128" t="n">
+        <v>400</v>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>286</v>
+      </c>
+      <c r="I128" t="n">
         <v>25</v>
       </c>
     </row>
@@ -10066,7 +10142,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I125"/>
+  <dimension ref="A1:I126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14706,6 +14782,43 @@
         <v>282</v>
       </c>
       <c r="I125" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>45787.41094516204</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0x01,0x1a</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F126" t="n">
+        <v>400</v>
+      </c>
+      <c r="G126" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H126" t="n">
+        <v>282</v>
+      </c>
+      <c r="I126" t="n">
         <v>20</v>
       </c>
     </row>
@@ -14720,7 +14833,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I125"/>
+  <dimension ref="A1:I126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19363,6 +19476,43 @@
         <v>25</v>
       </c>
     </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>45787.52466142361</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0x01,0x22</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F126" t="n">
+        <v>400</v>
+      </c>
+      <c r="G126" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H126" t="n">
+        <v>290</v>
+      </c>
+      <c r="I126" t="n">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAG2_Database_update.xlsx
+++ b/SAG2_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I126"/>
+  <dimension ref="A1:I127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5109,6 +5109,43 @@
         <v>282</v>
       </c>
       <c r="I126" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>45787.89056194444</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0x01,0x16</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F127" t="n">
+        <v>400</v>
+      </c>
+      <c r="G127" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H127" t="n">
+        <v>278</v>
+      </c>
+      <c r="I127" t="n">
         <v>14</v>
       </c>
     </row>
@@ -5123,7 +5160,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I128"/>
+  <dimension ref="A1:I129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10128,6 +10165,45 @@
         <v>286</v>
       </c>
       <c r="I128" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>45787.84115740741</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0x01,0x1e</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F129" t="n">
+        <v>400</v>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>286</v>
+      </c>
+      <c r="I129" t="n">
         <v>25</v>
       </c>
     </row>
@@ -10142,7 +10218,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I126"/>
+  <dimension ref="A1:I127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14819,6 +14895,43 @@
         <v>282</v>
       </c>
       <c r="I126" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>45787.91177849537</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0x01,0x16</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F127" t="n">
+        <v>400</v>
+      </c>
+      <c r="G127" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H127" t="n">
+        <v>278</v>
+      </c>
+      <c r="I127" t="n">
         <v>20</v>
       </c>
     </row>
@@ -14833,7 +14946,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I126"/>
+  <dimension ref="A1:I127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19513,6 +19626,43 @@
         <v>25</v>
       </c>
     </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>45788.02779799768</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0x01,0x22</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F127" t="n">
+        <v>400</v>
+      </c>
+      <c r="G127" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H127" t="n">
+        <v>290</v>
+      </c>
+      <c r="I127" t="n">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAG2_Database_update.xlsx
+++ b/SAG2_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I127"/>
+  <dimension ref="A1:I128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5146,6 +5146,43 @@
         <v>278</v>
       </c>
       <c r="I127" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>45788.39302722222</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0x01,0x16</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F128" t="n">
+        <v>400</v>
+      </c>
+      <c r="G128" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H128" t="n">
+        <v>278</v>
+      </c>
+      <c r="I128" t="n">
         <v>14</v>
       </c>
     </row>
@@ -5160,7 +5197,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I129"/>
+  <dimension ref="A1:I130"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10204,6 +10241,45 @@
         <v>286</v>
       </c>
       <c r="I129" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>45788.34247685185</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0x01,0x1e</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F130" t="n">
+        <v>400</v>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>286</v>
+      </c>
+      <c r="I130" t="n">
         <v>25</v>
       </c>
     </row>
@@ -10218,7 +10294,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I127"/>
+  <dimension ref="A1:I128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14932,6 +15008,43 @@
         <v>278</v>
       </c>
       <c r="I127" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>45788.4144868287</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0x01,0x16</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F128" t="n">
+        <v>400</v>
+      </c>
+      <c r="G128" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H128" t="n">
+        <v>278</v>
+      </c>
+      <c r="I128" t="n">
         <v>20</v>
       </c>
     </row>
@@ -14946,7 +15059,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I127"/>
+  <dimension ref="A1:I128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19663,6 +19776,43 @@
         <v>25</v>
       </c>
     </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>45788.53176790509</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0x01,0x1e</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F128" t="n">
+        <v>400</v>
+      </c>
+      <c r="G128" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H128" t="n">
+        <v>286</v>
+      </c>
+      <c r="I128" t="n">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAG2_Database_update.xlsx
+++ b/SAG2_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I128"/>
+  <dimension ref="A1:I129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5183,6 +5183,43 @@
         <v>278</v>
       </c>
       <c r="I128" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>45788.8948675</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0x01,0x16</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F129" t="n">
+        <v>400</v>
+      </c>
+      <c r="G129" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H129" t="n">
+        <v>278</v>
+      </c>
+      <c r="I129" t="n">
         <v>14</v>
       </c>
     </row>
@@ -5197,7 +5234,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I130"/>
+  <dimension ref="A1:I131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10280,6 +10317,45 @@
         <v>286</v>
       </c>
       <c r="I130" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>45788.84438657408</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0x01,0x1a</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F131" t="n">
+        <v>400</v>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>282</v>
+      </c>
+      <c r="I131" t="n">
         <v>25</v>
       </c>
     </row>
@@ -10294,7 +10370,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I128"/>
+  <dimension ref="A1:I129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15045,6 +15121,43 @@
         <v>278</v>
       </c>
       <c r="I128" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>45788.91595673611</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0x01,0x16</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F129" t="n">
+        <v>400</v>
+      </c>
+      <c r="G129" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H129" t="n">
+        <v>278</v>
+      </c>
+      <c r="I129" t="n">
         <v>20</v>
       </c>
     </row>
@@ -15059,7 +15172,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I128"/>
+  <dimension ref="A1:I129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19813,6 +19926,43 @@
         <v>25</v>
       </c>
     </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>45789.03269383102</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0x01,0x1e</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F129" t="n">
+        <v>400</v>
+      </c>
+      <c r="G129" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H129" t="n">
+        <v>286</v>
+      </c>
+      <c r="I129" t="n">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAG2_Database_update.xlsx
+++ b/SAG2_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I129"/>
+  <dimension ref="A1:I130"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5220,6 +5220,43 @@
         <v>278</v>
       </c>
       <c r="I129" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>45789.39894157407</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0x01,0x16</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F130" t="n">
+        <v>400</v>
+      </c>
+      <c r="G130" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H130" t="n">
+        <v>278</v>
+      </c>
+      <c r="I130" t="n">
         <v>14</v>
       </c>
     </row>
@@ -5234,7 +5271,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I131"/>
+  <dimension ref="A1:I132"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10356,6 +10393,45 @@
         <v>282</v>
       </c>
       <c r="I131" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>45789.34673611111</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0x01,0x1a</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F132" t="n">
+        <v>400</v>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>282</v>
+      </c>
+      <c r="I132" t="n">
         <v>25</v>
       </c>
     </row>
@@ -10370,7 +10446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I129"/>
+  <dimension ref="A1:I130"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15158,6 +15234,43 @@
         <v>278</v>
       </c>
       <c r="I129" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>45789.42008868056</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0x01,0x16</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F130" t="n">
+        <v>400</v>
+      </c>
+      <c r="G130" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H130" t="n">
+        <v>278</v>
+      </c>
+      <c r="I130" t="n">
         <v>20</v>
       </c>
     </row>
@@ -15172,7 +15285,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I129"/>
+  <dimension ref="A1:I130"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19963,6 +20076,43 @@
         <v>25</v>
       </c>
     </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>45789.53456883102</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0x01,0x1e</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F130" t="n">
+        <v>400</v>
+      </c>
+      <c r="G130" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H130" t="n">
+        <v>286</v>
+      </c>
+      <c r="I130" t="n">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAG2_Database_update.xlsx
+++ b/SAG2_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I130"/>
+  <dimension ref="A1:I131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5257,6 +5257,43 @@
         <v>278</v>
       </c>
       <c r="I130" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>45789.90005268519</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0x01,0x12</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F131" t="n">
+        <v>400</v>
+      </c>
+      <c r="G131" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H131" t="n">
+        <v>274</v>
+      </c>
+      <c r="I131" t="n">
         <v>14</v>
       </c>
     </row>
@@ -5271,7 +5308,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I132"/>
+  <dimension ref="A1:I133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10432,6 +10469,45 @@
         <v>282</v>
       </c>
       <c r="I132" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>45789.84840277778</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0x01,0x1a</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F133" t="n">
+        <v>400</v>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>282</v>
+      </c>
+      <c r="I133" t="n">
         <v>25</v>
       </c>
     </row>
@@ -10446,7 +10522,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I130"/>
+  <dimension ref="A1:I131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15271,6 +15347,43 @@
         <v>278</v>
       </c>
       <c r="I130" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>45789.92251923611</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0x01,0x12</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F131" t="n">
+        <v>400</v>
+      </c>
+      <c r="G131" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H131" t="n">
+        <v>274</v>
+      </c>
+      <c r="I131" t="n">
         <v>20</v>
       </c>
     </row>
@@ -15285,7 +15398,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I130"/>
+  <dimension ref="A1:I131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20113,6 +20226,43 @@
         <v>25</v>
       </c>
     </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>45790.03750864583</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0x01,0x1a</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F131" t="n">
+        <v>400</v>
+      </c>
+      <c r="G131" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H131" t="n">
+        <v>282</v>
+      </c>
+      <c r="I131" t="n">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAG2_Database_update.xlsx
+++ b/SAG2_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I131"/>
+  <dimension ref="A1:I132"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5294,6 +5294,43 @@
         <v>274</v>
       </c>
       <c r="I131" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>45790.40247166667</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0x01,0x12</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F132" t="n">
+        <v>400</v>
+      </c>
+      <c r="G132" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H132" t="n">
+        <v>274</v>
+      </c>
+      <c r="I132" t="n">
         <v>14</v>
       </c>
     </row>
@@ -5308,7 +5345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I133"/>
+  <dimension ref="A1:I134"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10508,6 +10545,45 @@
         <v>282</v>
       </c>
       <c r="I133" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>45790.35043981481</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0x01,0x1a</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F134" t="n">
+        <v>400</v>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>282</v>
+      </c>
+      <c r="I134" t="n">
         <v>25</v>
       </c>
     </row>
@@ -10522,7 +10598,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I131"/>
+  <dimension ref="A1:I132"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15384,6 +15460,43 @@
         <v>274</v>
       </c>
       <c r="I131" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>45790.42593358796</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0x01,0x12</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F132" t="n">
+        <v>400</v>
+      </c>
+      <c r="G132" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H132" t="n">
+        <v>274</v>
+      </c>
+      <c r="I132" t="n">
         <v>20</v>
       </c>
     </row>
@@ -15398,7 +15511,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I131"/>
+  <dimension ref="A1:I132"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20263,6 +20376,43 @@
         <v>25</v>
       </c>
     </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>45790.53998549769</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0x01,0x1a</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F132" t="n">
+        <v>400</v>
+      </c>
+      <c r="G132" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H132" t="n">
+        <v>282</v>
+      </c>
+      <c r="I132" t="n">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAG2_Database_update.xlsx
+++ b/SAG2_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I132"/>
+  <dimension ref="A1:I133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5331,6 +5331,43 @@
         <v>274</v>
       </c>
       <c r="I132" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>45790.90329342592</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0x01,0x12</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F133" t="n">
+        <v>400</v>
+      </c>
+      <c r="G133" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H133" t="n">
+        <v>274</v>
+      </c>
+      <c r="I133" t="n">
         <v>14</v>
       </c>
     </row>
@@ -5345,7 +5382,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I134"/>
+  <dimension ref="A1:I135"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10584,6 +10621,45 @@
         <v>282</v>
       </c>
       <c r="I134" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>45790.85194444445</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0x01,0x16</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F135" t="n">
+        <v>400</v>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>278</v>
+      </c>
+      <c r="I135" t="n">
         <v>25</v>
       </c>
     </row>
@@ -10598,7 +10674,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I132"/>
+  <dimension ref="A1:I133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15497,6 +15573,43 @@
         <v>274</v>
       </c>
       <c r="I132" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>45790.92966043981</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0x01,0x12</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F133" t="n">
+        <v>400</v>
+      </c>
+      <c r="G133" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H133" t="n">
+        <v>274</v>
+      </c>
+      <c r="I133" t="n">
         <v>20</v>
       </c>
     </row>
@@ -15511,7 +15624,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I132"/>
+  <dimension ref="A1:I133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20413,6 +20526,43 @@
         <v>25</v>
       </c>
     </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>45791.04361975694</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0x01,0x1a</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F133" t="n">
+        <v>400</v>
+      </c>
+      <c r="G133" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H133" t="n">
+        <v>282</v>
+      </c>
+      <c r="I133" t="n">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAG2_Database_update.xlsx
+++ b/SAG2_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I133"/>
+  <dimension ref="A1:I134"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5368,6 +5368,43 @@
         <v>274</v>
       </c>
       <c r="I133" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>45791.40612907407</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0x01,0x12</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F134" t="n">
+        <v>400</v>
+      </c>
+      <c r="G134" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H134" t="n">
+        <v>274</v>
+      </c>
+      <c r="I134" t="n">
         <v>14</v>
       </c>
     </row>
@@ -5382,7 +5419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I135"/>
+  <dimension ref="A1:I136"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10660,6 +10697,45 @@
         <v>278</v>
       </c>
       <c r="I135" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>45791.35438657407</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0x01,0x16</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F136" t="n">
+        <v>400</v>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>278</v>
+      </c>
+      <c r="I136" t="n">
         <v>25</v>
       </c>
     </row>
@@ -10674,7 +10750,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I133"/>
+  <dimension ref="A1:I134"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15610,6 +15686,43 @@
         <v>274</v>
       </c>
       <c r="I133" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>45791.43313266204</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0x01,0x12</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F134" t="n">
+        <v>400</v>
+      </c>
+      <c r="G134" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H134" t="n">
+        <v>274</v>
+      </c>
+      <c r="I134" t="n">
         <v>20</v>
       </c>
     </row>
@@ -15624,7 +15737,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I133"/>
+  <dimension ref="A1:I134"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20563,6 +20676,43 @@
         <v>25</v>
       </c>
     </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>45791.54676790509</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0x01,0x1a</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F134" t="n">
+        <v>400</v>
+      </c>
+      <c r="G134" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H134" t="n">
+        <v>282</v>
+      </c>
+      <c r="I134" t="n">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAG2_Database_update.xlsx
+++ b/SAG2_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I134"/>
+  <dimension ref="A1:I149"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5405,6 +5405,561 @@
         <v>274</v>
       </c>
       <c r="I134" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>45791.90718231481</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0x01,0x0e</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F135" t="n">
+        <v>400</v>
+      </c>
+      <c r="G135" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H135" t="n">
+        <v>270</v>
+      </c>
+      <c r="I135" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>45792.40828185185</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0x01,0x0e</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F136" t="n">
+        <v>400</v>
+      </c>
+      <c r="G136" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H136" t="n">
+        <v>270</v>
+      </c>
+      <c r="I136" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>45792.91197398149</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0x01,0x0e</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F137" t="n">
+        <v>400</v>
+      </c>
+      <c r="G137" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H137" t="n">
+        <v>270</v>
+      </c>
+      <c r="I137" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>45793.41564296297</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0x01,0x0e</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F138" t="n">
+        <v>400</v>
+      </c>
+      <c r="G138" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H138" t="n">
+        <v>270</v>
+      </c>
+      <c r="I138" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>45793.91925407408</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0x01,0x0a</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F139" t="n">
+        <v>400</v>
+      </c>
+      <c r="G139" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H139" t="n">
+        <v>266</v>
+      </c>
+      <c r="I139" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>45794.42131425926</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0x01,0x0a</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F140" t="n">
+        <v>400</v>
+      </c>
+      <c r="G140" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H140" t="n">
+        <v>266</v>
+      </c>
+      <c r="I140" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>45794.92458972222</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0x01,0x0a</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F141" t="n">
+        <v>400</v>
+      </c>
+      <c r="G141" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H141" t="n">
+        <v>266</v>
+      </c>
+      <c r="I141" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>45795.42548092593</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0x01,0x0a</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F142" t="n">
+        <v>400</v>
+      </c>
+      <c r="G142" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H142" t="n">
+        <v>266</v>
+      </c>
+      <c r="I142" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>45795.92837444445</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0x01,0x0a</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F143" t="n">
+        <v>400</v>
+      </c>
+      <c r="G143" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H143" t="n">
+        <v>266</v>
+      </c>
+      <c r="I143" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>45796.43208972222</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>0x01,0x06</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F144" t="n">
+        <v>400</v>
+      </c>
+      <c r="G144" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H144" t="n">
+        <v>262</v>
+      </c>
+      <c r="I144" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>45796.93560824074</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0x01,0x06</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F145" t="n">
+        <v>400</v>
+      </c>
+      <c r="G145" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H145" t="n">
+        <v>262</v>
+      </c>
+      <c r="I145" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>45797.4386637963</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>0x01,0x06</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F146" t="n">
+        <v>400</v>
+      </c>
+      <c r="G146" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H146" t="n">
+        <v>262</v>
+      </c>
+      <c r="I146" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>45797.94115222222</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>0x01,0x06</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F147" t="n">
+        <v>400</v>
+      </c>
+      <c r="G147" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H147" t="n">
+        <v>262</v>
+      </c>
+      <c r="I147" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>45798.44184666667</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>0x01,0x02</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F148" t="n">
+        <v>400</v>
+      </c>
+      <c r="G148" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H148" t="n">
+        <v>258</v>
+      </c>
+      <c r="I148" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>45798.944555</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>0x01,0x02</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F149" t="n">
+        <v>400</v>
+      </c>
+      <c r="G149" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H149" t="n">
+        <v>258</v>
+      </c>
+      <c r="I149" t="n">
         <v>14</v>
       </c>
     </row>
@@ -5419,7 +5974,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I136"/>
+  <dimension ref="A1:I152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10736,6 +11291,630 @@
         <v>278</v>
       </c>
       <c r="I136" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>45791.85538194444</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0x01,0x16</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F137" t="n">
+        <v>400</v>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>278</v>
+      </c>
+      <c r="I137" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>45792.35836805555</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0x01,0x16</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F138" t="n">
+        <v>400</v>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>278</v>
+      </c>
+      <c r="I138" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>45792.85912037037</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0x01,0x12</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F139" t="n">
+        <v>400</v>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>274</v>
+      </c>
+      <c r="I139" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>45793.36152777778</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0x01,0x12</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F140" t="n">
+        <v>400</v>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>274</v>
+      </c>
+      <c r="I140" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>45793.8642824074</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0x01,0x12</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F141" t="n">
+        <v>400</v>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>274</v>
+      </c>
+      <c r="I141" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>45794.36694444445</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0x01,0x12</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F142" t="n">
+        <v>400</v>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>274</v>
+      </c>
+      <c r="I142" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>45794.86966435185</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0x01,0x12</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F143" t="n">
+        <v>400</v>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>274</v>
+      </c>
+      <c r="I143" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>45795.37229166667</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>0x01,0x0e</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F144" t="n">
+        <v>400</v>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>270</v>
+      </c>
+      <c r="I144" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>45795.87606481482</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0x01,0x0e</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F145" t="n">
+        <v>400</v>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>270</v>
+      </c>
+      <c r="I145" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>45796.37798611111</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>0x01,0x0e</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F146" t="n">
+        <v>400</v>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>270</v>
+      </c>
+      <c r="I146" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>45796.88048611111</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>0x01,0x0e</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F147" t="n">
+        <v>400</v>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>270</v>
+      </c>
+      <c r="I147" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>45797.38128472222</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>0x01,0x0a</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F148" t="n">
+        <v>400</v>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>266</v>
+      </c>
+      <c r="I148" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>45797.88216435185</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>0x01,0x0a</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F149" t="n">
+        <v>400</v>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>266</v>
+      </c>
+      <c r="I149" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>45798.38329861111</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>0x01,0x0a</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F150" t="n">
+        <v>400</v>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>266</v>
+      </c>
+      <c r="I150" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>45798.88553240741</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>0x01,0x0a</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F151" t="n">
+        <v>400</v>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>266</v>
+      </c>
+      <c r="I151" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>45799.38818287037</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>0x01,0x06</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F152" t="n">
+        <v>400</v>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>262</v>
+      </c>
+      <c r="I152" t="n">
         <v>25</v>
       </c>
     </row>
@@ -10750,7 +11929,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I134"/>
+  <dimension ref="A1:I149"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15723,6 +16902,561 @@
         <v>274</v>
       </c>
       <c r="I134" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>45791.93450997685</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0x01,0x0e</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F135" t="n">
+        <v>400</v>
+      </c>
+      <c r="G135" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H135" t="n">
+        <v>270</v>
+      </c>
+      <c r="I135" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>45792.43529701389</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0x01,0x0e</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F136" t="n">
+        <v>400</v>
+      </c>
+      <c r="G136" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H136" t="n">
+        <v>270</v>
+      </c>
+      <c r="I136" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>45792.93749608796</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0x01,0x0e</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F137" t="n">
+        <v>400</v>
+      </c>
+      <c r="G137" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H137" t="n">
+        <v>270</v>
+      </c>
+      <c r="I137" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>45793.44116506945</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0x01,0x0e</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F138" t="n">
+        <v>400</v>
+      </c>
+      <c r="G138" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H138" t="n">
+        <v>270</v>
+      </c>
+      <c r="I138" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>45793.94438266203</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0x01,0x0a</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F139" t="n">
+        <v>400</v>
+      </c>
+      <c r="G139" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H139" t="n">
+        <v>266</v>
+      </c>
+      <c r="I139" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>45794.44655858797</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0x01,0x0a</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F140" t="n">
+        <v>400</v>
+      </c>
+      <c r="G140" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H140" t="n">
+        <v>266</v>
+      </c>
+      <c r="I140" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>45794.95040118055</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0x01,0x0a</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F141" t="n">
+        <v>400</v>
+      </c>
+      <c r="G141" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H141" t="n">
+        <v>266</v>
+      </c>
+      <c r="I141" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>45795.45283173611</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0x01,0x0a</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F142" t="n">
+        <v>400</v>
+      </c>
+      <c r="G142" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H142" t="n">
+        <v>266</v>
+      </c>
+      <c r="I142" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>45795.95573682871</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0x01,0x0a</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F143" t="n">
+        <v>400</v>
+      </c>
+      <c r="G143" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H143" t="n">
+        <v>266</v>
+      </c>
+      <c r="I143" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>45796.45764655092</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>0x01,0x06</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F144" t="n">
+        <v>400</v>
+      </c>
+      <c r="G144" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H144" t="n">
+        <v>262</v>
+      </c>
+      <c r="I144" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>45796.96141969907</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0x01,0x06</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F145" t="n">
+        <v>400</v>
+      </c>
+      <c r="G145" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H145" t="n">
+        <v>262</v>
+      </c>
+      <c r="I145" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>45797.46337571759</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>0x01,0x06</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F146" t="n">
+        <v>400</v>
+      </c>
+      <c r="G146" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H146" t="n">
+        <v>262</v>
+      </c>
+      <c r="I146" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>45797.96437108796</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>0x01,0x06</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F147" t="n">
+        <v>400</v>
+      </c>
+      <c r="G147" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H147" t="n">
+        <v>262</v>
+      </c>
+      <c r="I147" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>45798.46688266204</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>0x01,0x02</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F148" t="n">
+        <v>400</v>
+      </c>
+      <c r="G148" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H148" t="n">
+        <v>258</v>
+      </c>
+      <c r="I148" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>45798.96814423611</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>0x01,0x02</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F149" t="n">
+        <v>400</v>
+      </c>
+      <c r="G149" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H149" t="n">
+        <v>258</v>
+      </c>
+      <c r="I149" t="n">
         <v>20</v>
       </c>
     </row>
@@ -15737,7 +17471,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I134"/>
+  <dimension ref="A1:I149"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20713,6 +22447,561 @@
         <v>25</v>
       </c>
     </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>45792.04760123842</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0x01,0x16</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F135" t="n">
+        <v>400</v>
+      </c>
+      <c r="G135" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H135" t="n">
+        <v>278</v>
+      </c>
+      <c r="I135" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>45792.55098086806</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0x01,0x16</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F136" t="n">
+        <v>400</v>
+      </c>
+      <c r="G136" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H136" t="n">
+        <v>278</v>
+      </c>
+      <c r="I136" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>45793.05483503472</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0x01,0x16</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F137" t="n">
+        <v>400</v>
+      </c>
+      <c r="G137" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H137" t="n">
+        <v>278</v>
+      </c>
+      <c r="I137" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>45793.55585355324</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0x01,0x16</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F138" t="n">
+        <v>400</v>
+      </c>
+      <c r="G138" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H138" t="n">
+        <v>278</v>
+      </c>
+      <c r="I138" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>45794.05978873843</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0x01,0x12</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F139" t="n">
+        <v>400</v>
+      </c>
+      <c r="G139" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H139" t="n">
+        <v>274</v>
+      </c>
+      <c r="I139" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>45794.56301790509</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0x01,0x12</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F140" t="n">
+        <v>400</v>
+      </c>
+      <c r="G140" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H140" t="n">
+        <v>274</v>
+      </c>
+      <c r="I140" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>45795.06438364583</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0x01,0x12</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F141" t="n">
+        <v>400</v>
+      </c>
+      <c r="G141" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H141" t="n">
+        <v>274</v>
+      </c>
+      <c r="I141" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>45795.56688364584</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0x01,0x12</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F142" t="n">
+        <v>400</v>
+      </c>
+      <c r="G142" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H142" t="n">
+        <v>274</v>
+      </c>
+      <c r="I142" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>45796.06998549768</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0x01,0x12</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F143" t="n">
+        <v>400</v>
+      </c>
+      <c r="G143" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H143" t="n">
+        <v>274</v>
+      </c>
+      <c r="I143" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>45796.57289059028</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>0x01,0x0e</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F144" t="n">
+        <v>400</v>
+      </c>
+      <c r="G144" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H144" t="n">
+        <v>270</v>
+      </c>
+      <c r="I144" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>45797.07598086805</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0x01,0x0e</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F145" t="n">
+        <v>400</v>
+      </c>
+      <c r="G145" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H145" t="n">
+        <v>270</v>
+      </c>
+      <c r="I145" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>45797.5766753125</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>0x01,0x0e</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F146" t="n">
+        <v>400</v>
+      </c>
+      <c r="G146" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H146" t="n">
+        <v>270</v>
+      </c>
+      <c r="I146" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>45798.07896697917</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>0x01,0x0e</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F147" t="n">
+        <v>400</v>
+      </c>
+      <c r="G147" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H147" t="n">
+        <v>270</v>
+      </c>
+      <c r="I147" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>45798.58052947916</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>0x01,0x0a</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F148" t="n">
+        <v>400</v>
+      </c>
+      <c r="G148" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H148" t="n">
+        <v>266</v>
+      </c>
+      <c r="I148" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>45799.08387438658</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>0x01,0x0a</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F149" t="n">
+        <v>400</v>
+      </c>
+      <c r="G149" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H149" t="n">
+        <v>266</v>
+      </c>
+      <c r="I149" t="n">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAG2_Database_update.xlsx
+++ b/SAG2_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I149"/>
+  <dimension ref="A1:I150"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5960,6 +5960,43 @@
         <v>258</v>
       </c>
       <c r="I149" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>45799.44724018518</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>0x01,0x02</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F150" t="n">
+        <v>400</v>
+      </c>
+      <c r="G150" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H150" t="n">
+        <v>258</v>
+      </c>
+      <c r="I150" t="n">
         <v>14</v>
       </c>
     </row>
@@ -5974,7 +6011,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I152"/>
+  <dimension ref="A1:I153"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11915,6 +11952,45 @@
         <v>262</v>
       </c>
       <c r="I152" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>45799.89074074074</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>0x01,0x06</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F153" t="n">
+        <v>400</v>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>262</v>
+      </c>
+      <c r="I153" t="n">
         <v>25</v>
       </c>
     </row>
@@ -11929,7 +12005,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I149"/>
+  <dimension ref="A1:I150"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17457,6 +17533,43 @@
         <v>258</v>
       </c>
       <c r="I149" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>45799.470158125</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>0x01,0x02</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F150" t="n">
+        <v>400</v>
+      </c>
+      <c r="G150" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H150" t="n">
+        <v>258</v>
+      </c>
+      <c r="I150" t="n">
         <v>20</v>
       </c>
     </row>
@@ -17471,7 +17584,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I149"/>
+  <dimension ref="A1:I150"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23002,6 +23115,43 @@
         <v>25</v>
       </c>
     </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>45799.58638596065</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>0x01,0x0a</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F150" t="n">
+        <v>400</v>
+      </c>
+      <c r="G150" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H150" t="n">
+        <v>266</v>
+      </c>
+      <c r="I150" t="n">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAG2_Database_update.xlsx
+++ b/SAG2_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I150"/>
+  <dimension ref="A1:I151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5997,6 +5997,43 @@
         <v>258</v>
       </c>
       <c r="I150" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>45799.94836287037</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>0x01,0x02</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F151" t="n">
+        <v>400</v>
+      </c>
+      <c r="G151" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H151" t="n">
+        <v>258</v>
+      </c>
+      <c r="I151" t="n">
         <v>14</v>
       </c>
     </row>
@@ -6011,7 +6048,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I153"/>
+  <dimension ref="A1:I154"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11991,6 +12028,45 @@
         <v>262</v>
       </c>
       <c r="I153" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>45800.39284722223</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>0x01,0x06</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F154" t="n">
+        <v>400</v>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>262</v>
+      </c>
+      <c r="I154" t="n">
         <v>25</v>
       </c>
     </row>
@@ -12005,7 +12081,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I150"/>
+  <dimension ref="A1:I151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17570,6 +17646,43 @@
         <v>258</v>
       </c>
       <c r="I150" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>45799.97387340278</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>0x01,0x02</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F151" t="n">
+        <v>400</v>
+      </c>
+      <c r="G151" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H151" t="n">
+        <v>258</v>
+      </c>
+      <c r="I151" t="n">
         <v>20</v>
       </c>
     </row>
@@ -17584,7 +17697,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I150"/>
+  <dimension ref="A1:I151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23152,6 +23265,43 @@
         <v>25</v>
       </c>
     </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>45800.08829568287</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>0x01,0x0a</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F151" t="n">
+        <v>400</v>
+      </c>
+      <c r="G151" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H151" t="n">
+        <v>266</v>
+      </c>
+      <c r="I151" t="n">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAG2_Database_update.xlsx
+++ b/SAG2_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I151"/>
+  <dimension ref="A1:I152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6034,6 +6034,43 @@
         <v>258</v>
       </c>
       <c r="I151" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>45800.45170777778</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>0x00,0xfe</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F152" t="n">
+        <v>400</v>
+      </c>
+      <c r="G152" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H152" t="n">
+        <v>254</v>
+      </c>
+      <c r="I152" t="n">
         <v>14</v>
       </c>
     </row>
@@ -6048,7 +6085,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I154"/>
+  <dimension ref="A1:I155"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12067,6 +12104,45 @@
         <v>262</v>
       </c>
       <c r="I154" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>45800.8944675926</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>0x01,0x06</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F155" t="n">
+        <v>400</v>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>262</v>
+      </c>
+      <c r="I155" t="n">
         <v>25</v>
       </c>
     </row>
@@ -12081,7 +12157,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I151"/>
+  <dimension ref="A1:I152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17683,6 +17759,43 @@
         <v>258</v>
       </c>
       <c r="I151" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>45800.4767669213</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>0x00,0xfe</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F152" t="n">
+        <v>400</v>
+      </c>
+      <c r="G152" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H152" t="n">
+        <v>254</v>
+      </c>
+      <c r="I152" t="n">
         <v>20</v>
       </c>
     </row>
@@ -17697,7 +17810,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I151"/>
+  <dimension ref="A1:I152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23302,6 +23415,43 @@
         <v>25</v>
       </c>
     </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>45800.59143225694</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>0x01,0x06</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F152" t="n">
+        <v>400</v>
+      </c>
+      <c r="G152" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H152" t="n">
+        <v>262</v>
+      </c>
+      <c r="I152" t="n">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAG2_Database_update.xlsx
+++ b/SAG2_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I152"/>
+  <dimension ref="A1:I153"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6071,6 +6071,43 @@
         <v>254</v>
       </c>
       <c r="I152" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>45800.95548092593</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>0x00,0xfe</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F153" t="n">
+        <v>400</v>
+      </c>
+      <c r="G153" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H153" t="n">
+        <v>254</v>
+      </c>
+      <c r="I153" t="n">
         <v>14</v>
       </c>
     </row>
@@ -6085,7 +6122,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I155"/>
+  <dimension ref="A1:I156"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12143,6 +12180,45 @@
         <v>262</v>
       </c>
       <c r="I155" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>45801.39568287037</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>0x01,0x02</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F156" t="n">
+        <v>400</v>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>258</v>
+      </c>
+      <c r="I156" t="n">
         <v>25</v>
       </c>
     </row>
@@ -12157,7 +12233,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I152"/>
+  <dimension ref="A1:I153"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17796,6 +17872,43 @@
         <v>254</v>
       </c>
       <c r="I152" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>45800.97879238426</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>0x00,0xfe</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F153" t="n">
+        <v>400</v>
+      </c>
+      <c r="G153" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H153" t="n">
+        <v>254</v>
+      </c>
+      <c r="I153" t="n">
         <v>20</v>
       </c>
     </row>
@@ -17810,7 +17923,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I152"/>
+  <dimension ref="A1:I153"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23452,6 +23565,43 @@
         <v>25</v>
       </c>
     </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>45801.09518225695</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>0x01,0x06</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F153" t="n">
+        <v>400</v>
+      </c>
+      <c r="G153" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H153" t="n">
+        <v>262</v>
+      </c>
+      <c r="I153" t="n">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAG2_Database_update.xlsx
+++ b/SAG2_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I153"/>
+  <dimension ref="A1:I154"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6108,6 +6108,43 @@
         <v>254</v>
       </c>
       <c r="I153" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>45801.4567425</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>0x00,0xfe</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F154" t="n">
+        <v>400</v>
+      </c>
+      <c r="G154" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H154" t="n">
+        <v>254</v>
+      </c>
+      <c r="I154" t="n">
         <v>14</v>
       </c>
     </row>
@@ -6122,7 +6159,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I156"/>
+  <dimension ref="A1:I157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12219,6 +12256,45 @@
         <v>258</v>
       </c>
       <c r="I156" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>45801.89659722222</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>0x01,0x02</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F157" t="n">
+        <v>400</v>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>258</v>
+      </c>
+      <c r="I157" t="n">
         <v>25</v>
       </c>
     </row>
@@ -12233,7 +12309,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I153"/>
+  <dimension ref="A1:I154"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17909,6 +17985,43 @@
         <v>254</v>
       </c>
       <c r="I153" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>45801.48275071759</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>0x00,0xfe</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F154" t="n">
+        <v>400</v>
+      </c>
+      <c r="G154" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H154" t="n">
+        <v>254</v>
+      </c>
+      <c r="I154" t="n">
         <v>20</v>
       </c>
     </row>
@@ -17923,7 +18036,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I153"/>
+  <dimension ref="A1:I154"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23602,6 +23715,43 @@
         <v>25</v>
       </c>
     </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>45801.59637438657</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>0x01,0x06</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F154" t="n">
+        <v>400</v>
+      </c>
+      <c r="G154" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H154" t="n">
+        <v>262</v>
+      </c>
+      <c r="I154" t="n">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAG2_Database_update.xlsx
+++ b/SAG2_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I154"/>
+  <dimension ref="A1:I155"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6145,6 +6145,43 @@
         <v>254</v>
       </c>
       <c r="I154" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>45801.95975175926</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>0x00,0xfe</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F155" t="n">
+        <v>400</v>
+      </c>
+      <c r="G155" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H155" t="n">
+        <v>254</v>
+      </c>
+      <c r="I155" t="n">
         <v>14</v>
       </c>
     </row>
@@ -6159,7 +6196,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I157"/>
+  <dimension ref="A1:I158"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12295,6 +12332,45 @@
         <v>258</v>
       </c>
       <c r="I157" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>45802.40054398148</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>0x01,0x02</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F158" t="n">
+        <v>400</v>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>258</v>
+      </c>
+      <c r="I158" t="n">
         <v>25</v>
       </c>
     </row>
@@ -12309,7 +12385,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I154"/>
+  <dimension ref="A1:I155"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18022,6 +18098,43 @@
         <v>254</v>
       </c>
       <c r="I154" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>45801.984845625</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>0x00,0xfe</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F155" t="n">
+        <v>400</v>
+      </c>
+      <c r="G155" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H155" t="n">
+        <v>254</v>
+      </c>
+      <c r="I155" t="n">
         <v>20</v>
       </c>
     </row>
@@ -18036,7 +18149,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I154"/>
+  <dimension ref="A1:I155"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23752,6 +23865,43 @@
         <v>25</v>
       </c>
     </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>45802.0982841088</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>0x01,0x06</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F155" t="n">
+        <v>400</v>
+      </c>
+      <c r="G155" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H155" t="n">
+        <v>262</v>
+      </c>
+      <c r="I155" t="n">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAG2_Database_update.xlsx
+++ b/SAG2_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I155"/>
+  <dimension ref="A1:I156"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6182,6 +6182,43 @@
         <v>254</v>
       </c>
       <c r="I155" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>45802.46285361111</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>0x00,0xfa</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F156" t="n">
+        <v>400</v>
+      </c>
+      <c r="G156" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H156" t="n">
+        <v>250</v>
+      </c>
+      <c r="I156" t="n">
         <v>14</v>
       </c>
     </row>
@@ -6196,7 +6233,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I158"/>
+  <dimension ref="A1:I159"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12371,6 +12408,45 @@
         <v>258</v>
       </c>
       <c r="I158" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>45802.903125</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>0x01,0x02</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F159" t="n">
+        <v>400</v>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>258</v>
+      </c>
+      <c r="I159" t="n">
         <v>25</v>
       </c>
     </row>
@@ -12385,7 +12461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I155"/>
+  <dimension ref="A1:I156"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18135,6 +18211,43 @@
         <v>254</v>
       </c>
       <c r="I155" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>45802.48784331018</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>0x00,0xfa</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F156" t="n">
+        <v>400</v>
+      </c>
+      <c r="G156" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H156" t="n">
+        <v>250</v>
+      </c>
+      <c r="I156" t="n">
         <v>20</v>
       </c>
     </row>
@@ -18149,7 +18262,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I155"/>
+  <dimension ref="A1:I156"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23902,6 +24015,43 @@
         <v>25</v>
       </c>
     </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>45802.60035586805</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>0x01,0x02</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F156" t="n">
+        <v>400</v>
+      </c>
+      <c r="G156" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H156" t="n">
+        <v>258</v>
+      </c>
+      <c r="I156" t="n">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAG2_Database_update.xlsx
+++ b/SAG2_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I156"/>
+  <dimension ref="A1:I157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6219,6 +6219,43 @@
         <v>250</v>
       </c>
       <c r="I156" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>45802.96653416667</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>0x00,0xfa</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F157" t="n">
+        <v>400</v>
+      </c>
+      <c r="G157" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H157" t="n">
+        <v>250</v>
+      </c>
+      <c r="I157" t="n">
         <v>14</v>
       </c>
     </row>
@@ -6233,7 +6270,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I159"/>
+  <dimension ref="A1:I160"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12447,6 +12484,45 @@
         <v>258</v>
       </c>
       <c r="I159" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>45803.40645833333</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>0x00,0xfe</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F160" t="n">
+        <v>400</v>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>254</v>
+      </c>
+      <c r="I160" t="n">
         <v>25</v>
       </c>
     </row>
@@ -12461,7 +12537,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I156"/>
+  <dimension ref="A1:I157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18248,6 +18324,43 @@
         <v>250</v>
       </c>
       <c r="I156" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>45802.9901118287</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>0x00,0xfa</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F157" t="n">
+        <v>400</v>
+      </c>
+      <c r="G157" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H157" t="n">
+        <v>250</v>
+      </c>
+      <c r="I157" t="n">
         <v>20</v>
       </c>
     </row>
@@ -18262,7 +18375,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I156"/>
+  <dimension ref="A1:I157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24052,6 +24165,43 @@
         <v>25</v>
       </c>
     </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>45803.10233503472</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>0x01,0x02</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F157" t="n">
+        <v>400</v>
+      </c>
+      <c r="G157" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H157" t="n">
+        <v>258</v>
+      </c>
+      <c r="I157" t="n">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAG2_Database_update.xlsx
+++ b/SAG2_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I157"/>
+  <dimension ref="A1:I158"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6256,6 +6256,43 @@
         <v>250</v>
       </c>
       <c r="I157" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>45803.47052722222</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>0x00,0xfa</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F158" t="n">
+        <v>400</v>
+      </c>
+      <c r="G158" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H158" t="n">
+        <v>250</v>
+      </c>
+      <c r="I158" t="n">
         <v>14</v>
       </c>
     </row>
@@ -6270,7 +6307,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I160"/>
+  <dimension ref="A1:I161"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12523,6 +12560,45 @@
         <v>254</v>
       </c>
       <c r="I160" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>45803.9087037037</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>0x00,0xfe</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F161" t="n">
+        <v>400</v>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>254</v>
+      </c>
+      <c r="I161" t="n">
         <v>25</v>
       </c>
     </row>
@@ -12537,7 +12613,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I157"/>
+  <dimension ref="A1:I158"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18361,6 +18437,43 @@
         <v>250</v>
       </c>
       <c r="I157" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>45803.49244979167</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>0x00,0xfa</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F158" t="n">
+        <v>400</v>
+      </c>
+      <c r="G158" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H158" t="n">
+        <v>250</v>
+      </c>
+      <c r="I158" t="n">
         <v>20</v>
       </c>
     </row>
@@ -18375,7 +18488,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I157"/>
+  <dimension ref="A1:I158"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24202,6 +24315,43 @@
         <v>25</v>
       </c>
     </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>45803.60441836806</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>0x01,0x02</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F158" t="n">
+        <v>400</v>
+      </c>
+      <c r="G158" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H158" t="n">
+        <v>258</v>
+      </c>
+      <c r="I158" t="n">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAG2_Database_update.xlsx
+++ b/SAG2_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I158"/>
+  <dimension ref="A1:I159"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6293,6 +6293,43 @@
         <v>250</v>
       </c>
       <c r="I158" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>45803.97261055555</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>0x00,0xfa</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F159" t="n">
+        <v>400</v>
+      </c>
+      <c r="G159" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H159" t="n">
+        <v>250</v>
+      </c>
+      <c r="I159" t="n">
         <v>14</v>
       </c>
     </row>
@@ -6307,7 +6344,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I161"/>
+  <dimension ref="A1:I162"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12599,6 +12636,45 @@
         <v>254</v>
       </c>
       <c r="I161" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>45804.41210648148</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>0x00,0xfe</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F162" t="n">
+        <v>400</v>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>254</v>
+      </c>
+      <c r="I162" t="n">
         <v>25</v>
       </c>
     </row>
@@ -12613,7 +12689,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I158"/>
+  <dimension ref="A1:I159"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18474,6 +18550,43 @@
         <v>250</v>
       </c>
       <c r="I158" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>45803.99654701389</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>0x00,0xfa</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F159" t="n">
+        <v>400</v>
+      </c>
+      <c r="G159" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H159" t="n">
+        <v>250</v>
+      </c>
+      <c r="I159" t="n">
         <v>20</v>
       </c>
     </row>
@@ -18488,7 +18601,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I158"/>
+  <dimension ref="A1:I159"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24352,6 +24465,43 @@
         <v>25</v>
       </c>
     </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>45804.1054716088</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>0x01,0x02</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F159" t="n">
+        <v>400</v>
+      </c>
+      <c r="G159" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H159" t="n">
+        <v>258</v>
+      </c>
+      <c r="I159" t="n">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAG2_Database_update.xlsx
+++ b/SAG2_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I159"/>
+  <dimension ref="A1:I160"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6330,6 +6330,43 @@
         <v>250</v>
       </c>
       <c r="I159" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>45804.47573555556</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>0x00,0xf6</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F160" t="n">
+        <v>400</v>
+      </c>
+      <c r="G160" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H160" t="n">
+        <v>246</v>
+      </c>
+      <c r="I160" t="n">
         <v>14</v>
       </c>
     </row>
@@ -6344,7 +6381,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I162"/>
+  <dimension ref="A1:I163"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12675,6 +12712,45 @@
         <v>254</v>
       </c>
       <c r="I162" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>45804.91402777778</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>0x00,0xfe</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F163" t="n">
+        <v>400</v>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>254</v>
+      </c>
+      <c r="I163" t="n">
         <v>25</v>
       </c>
     </row>
@@ -12689,7 +12765,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I159"/>
+  <dimension ref="A1:I160"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18587,6 +18663,43 @@
         <v>250</v>
       </c>
       <c r="I159" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>45804.49949840278</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>0x00,0xf6</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F160" t="n">
+        <v>400</v>
+      </c>
+      <c r="G160" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H160" t="n">
+        <v>246</v>
+      </c>
+      <c r="I160" t="n">
         <v>20</v>
       </c>
     </row>
@@ -18601,7 +18714,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I159"/>
+  <dimension ref="A1:I160"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24502,6 +24615,43 @@
         <v>25</v>
       </c>
     </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>45804.6076128125</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>0x00,0xfe</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F160" t="n">
+        <v>400</v>
+      </c>
+      <c r="G160" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H160" t="n">
+        <v>254</v>
+      </c>
+      <c r="I160" t="n">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAG2_Database_update.xlsx
+++ b/SAG2_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I160"/>
+  <dimension ref="A1:I161"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6367,6 +6367,43 @@
         <v>246</v>
       </c>
       <c r="I160" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>45804.97867537037</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>0x00,0xf6</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F161" t="n">
+        <v>400</v>
+      </c>
+      <c r="G161" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H161" t="n">
+        <v>246</v>
+      </c>
+      <c r="I161" t="n">
         <v>14</v>
       </c>
     </row>
@@ -6381,7 +6418,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I163"/>
+  <dimension ref="A1:I164"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12751,6 +12788,45 @@
         <v>254</v>
       </c>
       <c r="I163" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>45805.41493055555</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>0x00,0xfa</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F164" t="n">
+        <v>400</v>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H164" t="n">
+        <v>250</v>
+      </c>
+      <c r="I164" t="n">
         <v>25</v>
       </c>
     </row>
@@ -12765,7 +12841,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I160"/>
+  <dimension ref="A1:I161"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18700,6 +18776,43 @@
         <v>246</v>
       </c>
       <c r="I160" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>45805.0007368287</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>0x00,0xf6</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F161" t="n">
+        <v>400</v>
+      </c>
+      <c r="G161" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H161" t="n">
+        <v>246</v>
+      </c>
+      <c r="I161" t="n">
         <v>20</v>
       </c>
     </row>
@@ -18714,7 +18827,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I160"/>
+  <dimension ref="A1:I161"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24652,6 +24765,43 @@
         <v>25</v>
       </c>
     </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>45805.10858503472</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>0x00,0xfe</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F161" t="n">
+        <v>400</v>
+      </c>
+      <c r="G161" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H161" t="n">
+        <v>254</v>
+      </c>
+      <c r="I161" t="n">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAG2_Database_update.xlsx
+++ b/SAG2_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I161"/>
+  <dimension ref="A1:I162"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6404,6 +6404,43 @@
         <v>246</v>
       </c>
       <c r="I161" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>45805.48155731482</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>0x00,0xf6</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F162" t="n">
+        <v>400</v>
+      </c>
+      <c r="G162" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H162" t="n">
+        <v>246</v>
+      </c>
+      <c r="I162" t="n">
         <v>14</v>
       </c>
     </row>
@@ -6418,7 +6455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I164"/>
+  <dimension ref="A1:I165"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12827,6 +12864,45 @@
         <v>250</v>
       </c>
       <c r="I164" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>45805.91612268519</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>0x00,0xfa</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F165" t="n">
+        <v>400</v>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H165" t="n">
+        <v>250</v>
+      </c>
+      <c r="I165" t="n">
         <v>25</v>
       </c>
     </row>
@@ -12841,7 +12917,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I161"/>
+  <dimension ref="A1:I162"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18813,6 +18889,43 @@
         <v>246</v>
       </c>
       <c r="I161" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>45805.50146599537</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>0x00,0xf6</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F162" t="n">
+        <v>400</v>
+      </c>
+      <c r="G162" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H162" t="n">
+        <v>246</v>
+      </c>
+      <c r="I162" t="n">
         <v>20</v>
       </c>
     </row>
@@ -18827,7 +18940,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I161"/>
+  <dimension ref="A1:I162"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24802,6 +24915,43 @@
         <v>25</v>
       </c>
     </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>45805.61047160879</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>0x00,0xfe</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F162" t="n">
+        <v>400</v>
+      </c>
+      <c r="G162" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H162" t="n">
+        <v>254</v>
+      </c>
+      <c r="I162" t="n">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAG2_Database_update.xlsx
+++ b/SAG2_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I162"/>
+  <dimension ref="A1:I163"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6441,6 +6441,43 @@
         <v>246</v>
       </c>
       <c r="I162" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>45805.98480962963</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>0x00,0xf6</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F163" t="n">
+        <v>400</v>
+      </c>
+      <c r="G163" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H163" t="n">
+        <v>246</v>
+      </c>
+      <c r="I163" t="n">
         <v>14</v>
       </c>
     </row>
@@ -12917,7 +12954,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I162"/>
+  <dimension ref="A1:I163"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18926,6 +18963,43 @@
         <v>246</v>
       </c>
       <c r="I162" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>45806.00280858796</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>0x00,0xf6</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F163" t="n">
+        <v>400</v>
+      </c>
+      <c r="G163" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H163" t="n">
+        <v>246</v>
+      </c>
+      <c r="I163" t="n">
         <v>20</v>
       </c>
     </row>
@@ -18940,7 +19014,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I162"/>
+  <dimension ref="A1:I163"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24952,6 +25026,43 @@
         <v>25</v>
       </c>
     </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>45806.11449938657</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>0x00,0xfe</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F163" t="n">
+        <v>400</v>
+      </c>
+      <c r="G163" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H163" t="n">
+        <v>254</v>
+      </c>
+      <c r="I163" t="n">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAG2_Database_update.xlsx
+++ b/SAG2_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I163"/>
+  <dimension ref="A1:I164"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6478,6 +6478,43 @@
         <v>246</v>
       </c>
       <c r="I163" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>45806.48566611111</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>0x00,0xf2</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F164" t="n">
+        <v>400</v>
+      </c>
+      <c r="G164" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H164" t="n">
+        <v>242</v>
+      </c>
+      <c r="I164" t="n">
         <v>14</v>
       </c>
     </row>
@@ -6492,7 +6529,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I165"/>
+  <dimension ref="A1:I166"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12940,6 +12977,45 @@
         <v>250</v>
       </c>
       <c r="I165" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>45806.41893518518</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>0x00,0xfa</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F166" t="n">
+        <v>400</v>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H166" t="n">
+        <v>250</v>
+      </c>
+      <c r="I166" t="n">
         <v>25</v>
       </c>
     </row>
@@ -12954,7 +13030,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I163"/>
+  <dimension ref="A1:I164"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19000,6 +19076,43 @@
         <v>246</v>
       </c>
       <c r="I163" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>45806.50396599537</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>0x00,0xf2</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F164" t="n">
+        <v>400</v>
+      </c>
+      <c r="G164" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H164" t="n">
+        <v>242</v>
+      </c>
+      <c r="I164" t="n">
         <v>20</v>
       </c>
     </row>
@@ -19014,7 +19127,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I163"/>
+  <dimension ref="A1:I164"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25063,6 +25176,43 @@
         <v>25</v>
       </c>
     </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>45806.61753179399</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>0x00,0xfa</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F164" t="n">
+        <v>400</v>
+      </c>
+      <c r="G164" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H164" t="n">
+        <v>250</v>
+      </c>
+      <c r="I164" t="n">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAG2_Database_update.xlsx
+++ b/SAG2_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I164"/>
+  <dimension ref="A1:I165"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6515,6 +6515,43 @@
         <v>242</v>
       </c>
       <c r="I164" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>45806.98842074074</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>0x00,0xf2</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F165" t="n">
+        <v>400</v>
+      </c>
+      <c r="G165" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H165" t="n">
+        <v>242</v>
+      </c>
+      <c r="I165" t="n">
         <v>14</v>
       </c>
     </row>
@@ -6529,7 +6566,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I166"/>
+  <dimension ref="A1:I167"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13016,6 +13053,45 @@
         <v>250</v>
       </c>
       <c r="I166" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>45806.92021990741</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>0x00,0xfa</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F167" t="n">
+        <v>400</v>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H167" t="n">
+        <v>250</v>
+      </c>
+      <c r="I167" t="n">
         <v>25</v>
       </c>
     </row>
@@ -13030,7 +13106,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I164"/>
+  <dimension ref="A1:I165"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19113,6 +19189,43 @@
         <v>242</v>
       </c>
       <c r="I164" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>45807.0063618287</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>0x00,0xf2</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F165" t="n">
+        <v>400</v>
+      </c>
+      <c r="G165" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H165" t="n">
+        <v>242</v>
+      </c>
+      <c r="I165" t="n">
         <v>20</v>
       </c>
     </row>
@@ -19127,7 +19240,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I164"/>
+  <dimension ref="A1:I165"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25213,6 +25326,43 @@
         <v>25</v>
       </c>
     </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>45807.11864290509</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>0x00,0xfa</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F165" t="n">
+        <v>400</v>
+      </c>
+      <c r="G165" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H165" t="n">
+        <v>250</v>
+      </c>
+      <c r="I165" t="n">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAG2_Database_update.xlsx
+++ b/SAG2_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I165"/>
+  <dimension ref="A1:I166"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6552,6 +6552,43 @@
         <v>242</v>
       </c>
       <c r="I165" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>45807.48930037037</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>0x00,0xf2</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F166" t="n">
+        <v>400</v>
+      </c>
+      <c r="G166" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H166" t="n">
+        <v>242</v>
+      </c>
+      <c r="I166" t="n">
         <v>14</v>
       </c>
     </row>
@@ -6566,7 +6603,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I167"/>
+  <dimension ref="A1:I168"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13092,6 +13129,45 @@
         <v>250</v>
       </c>
       <c r="I167" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>45807.42178240741</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>0x00,0xf6</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F168" t="n">
+        <v>400</v>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H168" t="n">
+        <v>246</v>
+      </c>
+      <c r="I168" t="n">
         <v>25</v>
       </c>
     </row>
@@ -13106,7 +13182,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I165"/>
+  <dimension ref="A1:I166"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19226,6 +19302,43 @@
         <v>242</v>
       </c>
       <c r="I165" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>45807.50986877315</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>0x00,0xf2</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F166" t="n">
+        <v>400</v>
+      </c>
+      <c r="G166" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H166" t="n">
+        <v>242</v>
+      </c>
+      <c r="I166" t="n">
         <v>20</v>
       </c>
     </row>
@@ -19240,7 +19353,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I165"/>
+  <dimension ref="A1:I166"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25363,6 +25476,43 @@
         <v>25</v>
       </c>
     </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>45807.61967299769</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>0x00,0xfa</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F166" t="n">
+        <v>400</v>
+      </c>
+      <c r="G166" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H166" t="n">
+        <v>250</v>
+      </c>
+      <c r="I166" t="n">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/SAG2_Database_update.xlsx
+++ b/SAG2_Database_update.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I166"/>
+  <dimension ref="A1:I167"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6589,6 +6589,43 @@
         <v>242</v>
       </c>
       <c r="I166" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>45807.99257583333</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x15,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>0x00,0xf2</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>0xe</t>
+        </is>
+      </c>
+      <c r="F167" t="n">
+        <v>400</v>
+      </c>
+      <c r="G167" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H167" t="n">
+        <v>242</v>
+      </c>
+      <c r="I167" t="n">
         <v>14</v>
       </c>
     </row>
@@ -6603,7 +6640,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I168"/>
+  <dimension ref="A1:I169"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13168,6 +13205,45 @@
         <v>246</v>
       </c>
       <c r="I168" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>45807.92254629629</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t xml:space="preserve">0x01,0x90 </t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x20,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>0x00,0xf6</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F169" t="n">
+        <v>400</v>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>568631262647113771663628</t>
+        </is>
+      </c>
+      <c r="H169" t="n">
+        <v>246</v>
+      </c>
+      <c r="I169" t="n">
         <v>25</v>
       </c>
     </row>
@@ -13182,7 +13258,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I166"/>
+  <dimension ref="A1:I167"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19339,6 +19415,43 @@
         <v>242</v>
       </c>
       <c r="I166" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>45808.01104932871</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x1a,0x41,0x0c,</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>0x00,0xf2</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>0x14</t>
+        </is>
+      </c>
+      <c r="F167" t="n">
+        <v>400</v>
+      </c>
+      <c r="G167" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H167" t="n">
+        <v>242</v>
+      </c>
+      <c r="I167" t="n">
         <v>20</v>
       </c>
     </row>
@@ -19353,7 +19466,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I166"/>
+  <dimension ref="A1:I167"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25513,6 +25626,43 @@
         <v>25</v>
       </c>
     </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>45808.12128179398</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>0x01,0x90</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>0x78,0x69,0x90,0x01,0x00,0x00,0x18,0x11,0x40,0x0c,</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>0x00,0xfa</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>0x19</t>
+        </is>
+      </c>
+      <c r="F167" t="n">
+        <v>400</v>
+      </c>
+      <c r="G167" t="n">
+        <v>5.68631262647114e+23</v>
+      </c>
+      <c r="H167" t="n">
+        <v>250</v>
+      </c>
+      <c r="I167" t="n">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
